--- a/bdd/4.3/WFBS Recursos Rest.xlsx
+++ b/bdd/4.3/WFBS Recursos Rest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8205"/>
+    <workbookView windowWidth="20355" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Montserrat"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">REST
 </t>
     </r>
@@ -507,6 +513,99 @@
   <si>
     <t>http://localhost:8080/ords/wfbs/usuario_area/json/delete</t>
   </si>
+  <si>
+    <t>area_competencia Create</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/area_competencia/json/create</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","areaid":"2","comptid":"2"}</t>
+  </si>
+  <si>
+    <t>area_competencia ReadAll</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/area_competencia/json/read_all</t>
+  </si>
+  <si>
+    <t>area_competencia ReadArea</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/area_competencia/json/read_area</t>
+  </si>
+  <si>
+    <t>area_competencia ReadCompetencia</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/area_competencia/json/read_competencia</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","comptid":"2"}</t>
+  </si>
+  <si>
+    <t>area_competencia Update</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/area_competencia/json/update</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","areaid":"2","comptid":"2","nareaid":"1","ncomptid":"2"}</t>
+  </si>
+  <si>
+    <t>area_competencia Delete</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/area_competencia/json/delete</t>
+  </si>
+  <si>
+    <t>competencia_nivel Create</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/competencia_nivel/json/create</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","comptid":"2","nivelid":"4"}</t>
+  </si>
+  <si>
+    <t>competencia_nivel ReadAll</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/competencia_nivel/json/read_all</t>
+  </si>
+  <si>
+    <t>competencia_nivel ReadNivel</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/competencia_nivel/json/read_nivel</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","nivelid":"1"}</t>
+  </si>
+  <si>
+    <t>competencia_nivel ReadCompetencia</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/competencia_nivel/json/read_competencia</t>
+  </si>
+  <si>
+    <t>competencia_nivel Update</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/competencia_nivel/json/update</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","comptid":"2","nivelid":"2","ncomptid":"1","nnivelid":"2"}</t>
+  </si>
+  <si>
+    <t>competencia_nivel Delete</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/competencia_nivel/json/delete</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","comptid":"2","nivelid":"2"}</t>
+  </si>
 </sst>
 </file>
 
@@ -514,9 +613,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -551,9 +650,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,36 +659,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -598,7 +688,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -614,7 +704,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,39 +749,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,7 +764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,8 +778,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +809,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,19 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,49 +881,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,43 +923,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,17 +1003,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +1016,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -943,17 +1062,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,143 +1086,129 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,31 +1217,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1472,10 +1571,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -10272,7 +10371,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" ht="13.5" spans="1:26">
+    <row r="284" spans="1:26">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -10300,9 +10399,13 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" ht="13.5" spans="1:26">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
+    <row r="285" spans="1:26">
+      <c r="A285" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -10328,9 +10431,13 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" ht="13.5" spans="1:26">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
+    <row r="286" spans="1:26">
+      <c r="A286" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -10356,9 +10463,13 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" ht="13.5" spans="1:26">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
+    <row r="287" spans="1:26">
+      <c r="A287" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -10384,9 +10495,13 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" ht="13.5" spans="1:26">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+    <row r="288" spans="1:26">
+      <c r="A288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -10412,7 +10527,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" ht="13.5" spans="1:26">
+    <row r="289" spans="1:26">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10440,9 +10555,13 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" ht="13.5" spans="1:26">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
+    <row r="290" spans="1:26">
+      <c r="A290" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -10468,9 +10587,13 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" ht="13.5" spans="1:26">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
+    <row r="291" spans="1:26">
+      <c r="A291" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -10496,9 +10619,13 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" ht="13.5" spans="1:26">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
+    <row r="292" spans="1:26">
+      <c r="A292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -10524,9 +10651,13 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" ht="13.5" spans="1:26">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
+    <row r="293" spans="1:26">
+      <c r="A293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -10552,7 +10683,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" ht="13.5" spans="1:26">
+    <row r="294" spans="1:26">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10580,9 +10711,13 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" ht="13.5" spans="1:26">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
+    <row r="295" spans="1:26">
+      <c r="A295" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10608,9 +10743,13 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" ht="13.5" spans="1:26">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
+    <row r="296" spans="1:26">
+      <c r="A296" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10636,9 +10775,13 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" ht="13.5" spans="1:26">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
+    <row r="297" spans="1:26">
+      <c r="A297" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -10664,9 +10807,13 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" ht="13.5" spans="1:26">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
+    <row r="298" spans="1:26">
+      <c r="A298" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10692,7 +10839,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" ht="13.5" spans="1:26">
+    <row r="299" spans="1:26">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10720,9 +10867,13 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" ht="13.5" spans="1:26">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
+    <row r="300" spans="1:26">
+      <c r="A300" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -10748,9 +10899,13 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" ht="13.5" spans="1:26">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
+    <row r="301" spans="1:26">
+      <c r="A301" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10776,9 +10931,13 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" ht="13.5" spans="1:26">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
+    <row r="302" spans="1:26">
+      <c r="A302" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10804,9 +10963,13 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" ht="13.5" spans="1:26">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
+    <row r="303" spans="1:26">
+      <c r="A303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10832,7 +10995,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" ht="13.5" spans="1:26">
+    <row r="304" spans="1:26">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10860,9 +11023,13 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" ht="13.5" spans="1:26">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
+    <row r="305" spans="1:26">
+      <c r="A305" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10888,9 +11055,13 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" ht="13.5" spans="1:26">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
+    <row r="306" spans="1:26">
+      <c r="A306" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -10916,9 +11087,13 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" ht="13.5" spans="1:26">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
+    <row r="307" spans="1:26">
+      <c r="A307" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -10944,9 +11119,13 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" ht="13.5" spans="1:26">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
+    <row r="308" spans="1:26">
+      <c r="A308" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10972,7 +11151,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" ht="13.5" spans="1:26">
+    <row r="309" spans="1:26">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -11000,9 +11179,13 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" ht="13.5" spans="1:26">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
+    <row r="310" spans="1:26">
+      <c r="A310" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -11028,9 +11211,13 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" ht="13.5" spans="1:26">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
+    <row r="311" spans="1:26">
+      <c r="A311" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -11056,9 +11243,13 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" ht="13.5" spans="1:26">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
+    <row r="312" spans="1:26">
+      <c r="A312" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -11084,9 +11275,13 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" ht="13.5" spans="1:26">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
+    <row r="313" spans="1:26">
+      <c r="A313" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -11112,7 +11307,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" ht="13.5" spans="1:26">
+    <row r="314" spans="1:26">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -11140,9 +11335,13 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" ht="13.5" spans="1:26">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
+    <row r="315" spans="1:26">
+      <c r="A315" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -11168,9 +11367,13 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" ht="13.5" spans="1:26">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
+    <row r="316" spans="1:26">
+      <c r="A316" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -11196,9 +11399,13 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" ht="13.5" spans="1:26">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
+    <row r="317" spans="1:26">
+      <c r="A317" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -11224,9 +11431,13 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" ht="13.5" spans="1:26">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
+    <row r="318" spans="1:26">
+      <c r="A318" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -11252,7 +11463,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" ht="13.5" spans="1:26">
+    <row r="319" spans="1:26">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -11280,9 +11491,13 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" ht="13.5" spans="1:26">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
+    <row r="320" spans="1:26">
+      <c r="A320" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -11308,9 +11523,13 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" ht="13.5" spans="1:26">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
+    <row r="321" spans="1:26">
+      <c r="A321" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -11336,9 +11555,13 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" ht="13.5" spans="1:26">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
+    <row r="322" spans="1:26">
+      <c r="A322" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -11364,9 +11587,13 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" ht="13.5" spans="1:26">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
+    <row r="323" spans="1:26">
+      <c r="A323" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -11392,7 +11619,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" ht="13.5" spans="1:26">
+    <row r="324" spans="1:26">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11420,9 +11647,13 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" ht="13.5" spans="1:26">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
+    <row r="325" spans="1:26">
+      <c r="A325" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -11448,9 +11679,13 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" ht="13.5" spans="1:26">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
+    <row r="326" spans="1:26">
+      <c r="A326" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -11476,9 +11711,13 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" ht="13.5" spans="1:26">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
+    <row r="327" spans="1:26">
+      <c r="A327" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -11504,9 +11743,13 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" ht="13.5" spans="1:26">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
+    <row r="328" spans="1:26">
+      <c r="A328" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -11532,7 +11775,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" ht="13.5" spans="1:26">
+    <row r="329" spans="1:26">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11560,9 +11803,13 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" ht="13.5" spans="1:26">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
+    <row r="330" spans="1:26">
+      <c r="A330" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -11588,9 +11835,13 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" ht="13.5" spans="1:26">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
+    <row r="331" spans="1:26">
+      <c r="A331" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -11616,9 +11867,13 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" ht="13.5" spans="1:26">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
+    <row r="332" spans="1:26">
+      <c r="A332" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11644,9 +11899,13 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" ht="13.5" spans="1:26">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
+    <row r="333" spans="1:26">
+      <c r="A333" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -11672,7 +11931,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" ht="13.5" spans="1:26">
+    <row r="334" spans="1:26">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11700,9 +11959,13 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" ht="13.5" spans="1:26">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
+    <row r="335" spans="1:26">
+      <c r="A335" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -11728,9 +11991,13 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" ht="13.5" spans="1:26">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+    <row r="336" spans="1:26">
+      <c r="A336" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -11756,9 +12023,13 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" ht="13.5" spans="1:26">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+    <row r="337" spans="1:26">
+      <c r="A337" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -11784,9 +12055,13 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" ht="13.5" spans="1:26">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
+    <row r="338" spans="1:26">
+      <c r="A338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -11812,7 +12087,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" ht="13.5" spans="1:26">
+    <row r="339" spans="1:26">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11840,9 +12115,13 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" ht="13.5" spans="1:26">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
+    <row r="340" spans="1:26">
+      <c r="A340" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -11868,9 +12147,13 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" ht="13.5" spans="1:26">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
+    <row r="341" spans="1:26">
+      <c r="A341" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -11896,9 +12179,13 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" ht="13.5" spans="1:26">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+    <row r="342" spans="1:26">
+      <c r="A342" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -11924,9 +12211,13 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" ht="13.5" spans="1:26">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+    <row r="343" spans="1:26">
+      <c r="A343" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -11952,7 +12243,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" ht="13.5" spans="1:26">
+    <row r="344" spans="1:26">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11980,7 +12271,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" ht="13.5" spans="1:26">
+    <row r="345" spans="1:26">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -12008,7 +12299,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" ht="13.5" spans="1:26">
+    <row r="346" spans="1:26">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -12036,7 +12327,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" ht="13.5" spans="1:26">
+    <row r="347" spans="1:26">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -12064,7 +12355,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" ht="13.5" spans="1:26">
+    <row r="348" spans="1:26">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -12092,7 +12383,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" ht="13.5" spans="1:26">
+    <row r="349" spans="1:26">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -12120,7 +12411,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" ht="13.5" spans="1:26">
+    <row r="350" spans="1:26">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -12148,7 +12439,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" ht="13.5" spans="1:26">
+    <row r="351" spans="1:26">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -12176,7 +12467,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" ht="13.5" spans="1:26">
+    <row r="352" spans="1:26">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -12204,7 +12495,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" ht="13.5" spans="1:26">
+    <row r="353" spans="1:26">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -12232,7 +12523,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" ht="13.5" spans="1:26">
+    <row r="354" spans="1:26">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -12260,7 +12551,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" ht="13.5" spans="1:26">
+    <row r="355" spans="1:26">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -12288,7 +12579,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" ht="13.5" spans="1:26">
+    <row r="356" spans="1:26">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12316,7 +12607,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" ht="13.5" spans="1:26">
+    <row r="357" spans="1:26">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12344,7 +12635,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" ht="13.5" spans="1:26">
+    <row r="358" spans="1:26">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12372,7 +12663,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" ht="13.5" spans="1:26">
+    <row r="359" spans="1:26">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12400,7 +12691,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" ht="13.5" spans="1:26">
+    <row r="360" spans="1:26">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12428,7 +12719,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" ht="13.5" spans="1:26">
+    <row r="361" spans="1:26">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12456,7 +12747,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" ht="13.5" spans="1:26">
+    <row r="362" spans="1:26">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12484,7 +12775,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" ht="13.5" spans="1:26">
+    <row r="363" spans="1:26">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12512,7 +12803,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" ht="13.5" spans="1:26">
+    <row r="364" spans="1:26">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12540,7 +12831,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" ht="13.5" spans="1:26">
+    <row r="365" spans="1:26">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12568,7 +12859,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" ht="13.5" spans="1:26">
+    <row r="366" spans="1:26">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12596,7 +12887,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" ht="13.5" spans="1:26">
+    <row r="367" spans="1:26">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12624,7 +12915,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" ht="13.5" spans="1:26">
+    <row r="368" spans="1:26">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12652,7 +12943,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" ht="13.5" spans="1:26">
+    <row r="369" spans="1:26">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12680,7 +12971,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" ht="13.5" spans="1:26">
+    <row r="370" spans="1:26">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12708,7 +12999,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" ht="13.5" spans="1:26">
+    <row r="371" spans="1:26">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12736,7 +13027,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" ht="13.5" spans="1:26">
+    <row r="372" spans="1:26">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12764,7 +13055,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" ht="13.5" spans="1:26">
+    <row r="373" spans="1:26">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12792,7 +13083,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" ht="13.5" spans="1:26">
+    <row r="374" spans="1:26">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12820,7 +13111,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" ht="13.5" spans="1:26">
+    <row r="375" spans="1:26">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12848,7 +13139,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" ht="13.5" spans="1:26">
+    <row r="376" spans="1:26">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12876,7 +13167,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" ht="13.5" spans="1:26">
+    <row r="377" spans="1:26">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12904,7 +13195,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" ht="13.5" spans="1:26">
+    <row r="378" spans="1:26">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12932,7 +13223,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" ht="13.5" spans="1:26">
+    <row r="379" spans="1:26">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12960,7 +13251,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" ht="13.5" spans="1:26">
+    <row r="380" spans="1:26">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12988,7 +13279,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" ht="13.5" spans="1:26">
+    <row r="381" spans="1:26">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -13016,7 +13307,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" ht="13.5" spans="1:26">
+    <row r="382" spans="1:26">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -13044,7 +13335,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" ht="13.5" spans="1:26">
+    <row r="383" spans="1:26">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -13072,7 +13363,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" ht="13.5" spans="1:26">
+    <row r="384" spans="1:26">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -13100,7 +13391,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" ht="13.5" spans="1:26">
+    <row r="385" spans="1:26">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -13128,7 +13419,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" ht="13.5" spans="1:26">
+    <row r="386" spans="1:26">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -13156,7 +13447,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" ht="13.5" spans="1:26">
+    <row r="387" spans="1:26">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -13184,7 +13475,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" ht="13.5" spans="1:26">
+    <row r="388" spans="1:26">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -13212,7 +13503,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" ht="13.5" spans="1:26">
+    <row r="389" spans="1:26">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -13240,7 +13531,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" ht="13.5" spans="1:26">
+    <row r="390" spans="1:26">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13268,7 +13559,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" ht="13.5" spans="1:26">
+    <row r="391" spans="1:26">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13296,7 +13587,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" ht="13.5" spans="1:26">
+    <row r="392" spans="1:26">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13324,7 +13615,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" ht="13.5" spans="1:26">
+    <row r="393" spans="1:26">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13352,7 +13643,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" ht="13.5" spans="1:26">
+    <row r="394" spans="1:26">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13380,7 +13671,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" ht="13.5" spans="1:26">
+    <row r="395" spans="1:26">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13408,7 +13699,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" ht="13.5" spans="1:26">
+    <row r="396" spans="1:26">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13436,7 +13727,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" ht="13.5" spans="1:26">
+    <row r="397" spans="1:26">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13464,7 +13755,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" ht="13.5" spans="1:26">
+    <row r="398" spans="1:26">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13492,7 +13783,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" ht="13.5" spans="1:26">
+    <row r="399" spans="1:26">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13520,7 +13811,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" ht="13.5" spans="1:26">
+    <row r="400" spans="1:26">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13548,7 +13839,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" ht="13.5" spans="1:26">
+    <row r="401" spans="1:26">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13576,7 +13867,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" ht="13.5" spans="1:26">
+    <row r="402" spans="1:26">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13604,7 +13895,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" ht="13.5" spans="1:26">
+    <row r="403" spans="1:26">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13632,7 +13923,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" ht="13.5" spans="1:26">
+    <row r="404" spans="1:26">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13660,7 +13951,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" ht="13.5" spans="1:26">
+    <row r="405" spans="1:26">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13688,7 +13979,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" ht="13.5" spans="1:26">
+    <row r="406" spans="1:26">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13716,7 +14007,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" ht="13.5" spans="1:26">
+    <row r="407" spans="1:26">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13744,7 +14035,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" ht="13.5" spans="1:26">
+    <row r="408" spans="1:26">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13772,7 +14063,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" ht="13.5" spans="1:26">
+    <row r="409" spans="1:26">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13800,7 +14091,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" ht="13.5" spans="1:26">
+    <row r="410" spans="1:26">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13828,7 +14119,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" ht="13.5" spans="1:26">
+    <row r="411" spans="1:26">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13856,7 +14147,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" ht="13.5" spans="1:26">
+    <row r="412" spans="1:26">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13884,7 +14175,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" ht="13.5" spans="1:26">
+    <row r="413" spans="1:26">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13912,7 +14203,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" ht="13.5" spans="1:26">
+    <row r="414" spans="1:26">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13940,7 +14231,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" ht="13.5" spans="1:26">
+    <row r="415" spans="1:26">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13968,7 +14259,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" ht="13.5" spans="1:26">
+    <row r="416" spans="1:26">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13996,7 +14287,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" ht="13.5" spans="1:26">
+    <row r="417" spans="1:26">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -14024,7 +14315,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" ht="13.5" spans="1:26">
+    <row r="418" spans="1:26">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -14052,7 +14343,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" ht="13.5" spans="1:26">
+    <row r="419" spans="1:26">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -14080,7 +14371,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" ht="13.5" spans="1:26">
+    <row r="420" spans="1:26">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -14108,7 +14399,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" ht="13.5" spans="1:26">
+    <row r="421" spans="1:26">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -14136,7 +14427,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" ht="13.5" spans="1:26">
+    <row r="422" spans="1:26">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -14164,7 +14455,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" ht="13.5" spans="1:26">
+    <row r="423" spans="1:26">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -14192,7 +14483,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" ht="13.5" spans="1:26">
+    <row r="424" spans="1:26">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -14220,7 +14511,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" ht="13.5" spans="1:26">
+    <row r="425" spans="1:26">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14248,7 +14539,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" ht="13.5" spans="1:26">
+    <row r="426" spans="1:26">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14276,7 +14567,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" ht="13.5" spans="1:26">
+    <row r="427" spans="1:26">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14304,7 +14595,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" ht="13.5" spans="1:26">
+    <row r="428" spans="1:26">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14332,7 +14623,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" ht="13.5" spans="1:26">
+    <row r="429" spans="1:26">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14360,7 +14651,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" ht="13.5" spans="1:26">
+    <row r="430" spans="1:26">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14388,7 +14679,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" ht="13.5" spans="1:26">
+    <row r="431" spans="1:26">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14416,7 +14707,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" ht="13.5" spans="1:26">
+    <row r="432" spans="1:26">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14444,7 +14735,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" ht="13.5" spans="1:26">
+    <row r="433" spans="1:26">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14472,7 +14763,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" ht="13.5" spans="1:26">
+    <row r="434" spans="1:26">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14500,7 +14791,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" ht="13.5" spans="1:26">
+    <row r="435" spans="1:26">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14528,7 +14819,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" ht="13.5" spans="1:26">
+    <row r="436" spans="1:26">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14556,7 +14847,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" ht="13.5" spans="1:26">
+    <row r="437" spans="1:26">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14584,7 +14875,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" ht="13.5" spans="1:26">
+    <row r="438" spans="1:26">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14612,7 +14903,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" ht="13.5" spans="1:26">
+    <row r="439" spans="1:26">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14640,7 +14931,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" ht="13.5" spans="1:26">
+    <row r="440" spans="1:26">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14668,7 +14959,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" ht="13.5" spans="1:26">
+    <row r="441" spans="1:26">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14696,7 +14987,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" ht="13.5" spans="1:26">
+    <row r="442" spans="1:26">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14724,7 +15015,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" ht="13.5" spans="1:26">
+    <row r="443" spans="1:26">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14752,7 +15043,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" ht="13.5" spans="1:26">
+    <row r="444" spans="1:26">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14780,7 +15071,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" ht="13.5" spans="1:26">
+    <row r="445" spans="1:26">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14808,7 +15099,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" ht="13.5" spans="1:26">
+    <row r="446" spans="1:26">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14836,7 +15127,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" ht="13.5" spans="1:26">
+    <row r="447" spans="1:26">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14864,7 +15155,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" ht="13.5" spans="1:26">
+    <row r="448" spans="1:26">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14892,7 +15183,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" ht="13.5" spans="1:26">
+    <row r="449" spans="1:26">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14920,7 +15211,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" ht="13.5" spans="1:26">
+    <row r="450" spans="1:26">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14948,7 +15239,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" ht="13.5" spans="1:26">
+    <row r="451" spans="1:26">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14976,7 +15267,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" ht="13.5" spans="1:26">
+    <row r="452" spans="1:26">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -15004,7 +15295,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" ht="13.5" spans="1:26">
+    <row r="453" spans="1:26">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -15032,7 +15323,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" ht="13.5" spans="1:26">
+    <row r="454" spans="1:26">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -15060,7 +15351,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" ht="13.5" spans="1:26">
+    <row r="455" spans="1:26">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -15088,7 +15379,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" ht="13.5" spans="1:26">
+    <row r="456" spans="1:26">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -15116,7 +15407,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" ht="13.5" spans="1:26">
+    <row r="457" spans="1:26">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -15144,7 +15435,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" ht="13.5" spans="1:26">
+    <row r="458" spans="1:26">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -15172,7 +15463,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" ht="13.5" spans="1:26">
+    <row r="459" spans="1:26">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15200,7 +15491,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" ht="13.5" spans="1:26">
+    <row r="460" spans="1:26">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15228,7 +15519,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" ht="13.5" spans="1:26">
+    <row r="461" spans="1:26">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15256,7 +15547,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" ht="13.5" spans="1:26">
+    <row r="462" spans="1:26">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15284,7 +15575,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" ht="13.5" spans="1:26">
+    <row r="463" spans="1:26">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15312,7 +15603,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" ht="13.5" spans="1:26">
+    <row r="464" spans="1:26">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15340,7 +15631,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" ht="13.5" spans="1:26">
+    <row r="465" spans="1:26">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15368,7 +15659,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" ht="13.5" spans="1:26">
+    <row r="466" spans="1:26">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15396,7 +15687,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" ht="13.5" spans="1:26">
+    <row r="467" spans="1:26">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15424,7 +15715,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" ht="13.5" spans="1:26">
+    <row r="468" spans="1:26">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15452,7 +15743,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" ht="13.5" spans="1:26">
+    <row r="469" spans="1:26">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15480,7 +15771,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" ht="13.5" spans="1:26">
+    <row r="470" spans="1:26">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15508,7 +15799,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" ht="13.5" spans="1:26">
+    <row r="471" spans="1:26">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15536,7 +15827,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" ht="13.5" spans="1:26">
+    <row r="472" spans="1:26">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15564,7 +15855,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" ht="13.5" spans="1:26">
+    <row r="473" spans="1:26">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15592,7 +15883,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" ht="13.5" spans="1:26">
+    <row r="474" spans="1:26">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15620,7 +15911,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" ht="13.5" spans="1:26">
+    <row r="475" spans="1:26">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15648,7 +15939,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" ht="13.5" spans="1:26">
+    <row r="476" spans="1:26">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15676,7 +15967,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" ht="13.5" spans="1:26">
+    <row r="477" spans="1:26">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15704,7 +15995,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" ht="13.5" spans="1:26">
+    <row r="478" spans="1:26">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15732,7 +16023,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" ht="13.5" spans="1:26">
+    <row r="479" spans="1:26">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15760,7 +16051,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" ht="13.5" spans="1:26">
+    <row r="480" spans="1:26">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15788,7 +16079,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" ht="13.5" spans="1:26">
+    <row r="481" spans="1:26">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15816,7 +16107,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" ht="13.5" spans="1:26">
+    <row r="482" spans="1:26">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15844,7 +16135,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" ht="13.5" spans="1:26">
+    <row r="483" spans="1:26">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15872,7 +16163,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" ht="13.5" spans="1:26">
+    <row r="484" spans="1:26">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15900,7 +16191,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" ht="13.5" spans="1:26">
+    <row r="485" spans="1:26">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15928,7 +16219,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" ht="13.5" spans="1:26">
+    <row r="486" spans="1:26">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15956,7 +16247,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" ht="13.5" spans="1:26">
+    <row r="487" spans="1:26">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15984,7 +16275,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" ht="13.5" spans="1:26">
+    <row r="488" spans="1:26">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -16012,7 +16303,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" ht="13.5" spans="1:26">
+    <row r="489" spans="1:26">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -16040,7 +16331,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" ht="13.5" spans="1:26">
+    <row r="490" spans="1:26">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -16068,7 +16359,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" ht="13.5" spans="1:26">
+    <row r="491" spans="1:26">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -16096,7 +16387,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" ht="13.5" spans="1:26">
+    <row r="492" spans="1:26">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -16124,7 +16415,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" ht="13.5" spans="1:26">
+    <row r="493" spans="1:26">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -16152,7 +16443,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" ht="13.5" spans="1:26">
+    <row r="494" spans="1:26">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16180,7 +16471,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" ht="13.5" spans="1:26">
+    <row r="495" spans="1:26">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16208,7 +16499,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" ht="13.5" spans="1:26">
+    <row r="496" spans="1:26">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16236,7 +16527,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" ht="13.5" spans="1:26">
+    <row r="497" spans="1:26">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16264,7 +16555,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" ht="13.5" spans="1:26">
+    <row r="498" spans="1:26">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16292,7 +16583,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" ht="13.5" spans="1:26">
+    <row r="499" spans="1:26">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16320,7 +16611,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" ht="13.5" spans="1:26">
+    <row r="500" spans="1:26">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16348,7 +16639,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" ht="13.5" spans="1:26">
+    <row r="501" spans="1:26">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16376,7 +16667,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" ht="13.5" spans="1:26">
+    <row r="502" spans="1:26">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16404,7 +16695,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" ht="13.5" spans="1:26">
+    <row r="503" spans="1:26">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16432,7 +16723,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" ht="13.5" spans="1:26">
+    <row r="504" spans="1:26">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16460,7 +16751,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" ht="13.5" spans="1:26">
+    <row r="505" spans="1:26">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16488,7 +16779,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" ht="13.5" spans="1:26">
+    <row r="506" spans="1:26">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16516,7 +16807,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" ht="13.5" spans="1:26">
+    <row r="507" spans="1:26">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16544,7 +16835,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" ht="13.5" spans="1:26">
+    <row r="508" spans="1:26">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16572,7 +16863,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" ht="13.5" spans="1:26">
+    <row r="509" spans="1:26">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16600,7 +16891,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" ht="13.5" spans="1:26">
+    <row r="510" spans="1:26">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16628,7 +16919,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" ht="13.5" spans="1:26">
+    <row r="511" spans="1:26">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16656,7 +16947,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" ht="13.5" spans="1:26">
+    <row r="512" spans="1:26">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16684,7 +16975,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" ht="13.5" spans="1:26">
+    <row r="513" spans="1:26">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16712,7 +17003,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" ht="13.5" spans="1:26">
+    <row r="514" spans="1:26">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16740,7 +17031,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" ht="13.5" spans="1:26">
+    <row r="515" spans="1:26">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16768,7 +17059,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" ht="13.5" spans="1:26">
+    <row r="516" spans="1:26">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16796,7 +17087,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" ht="13.5" spans="1:26">
+    <row r="517" spans="1:26">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16824,7 +17115,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" ht="13.5" spans="1:26">
+    <row r="518" spans="1:26">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16852,7 +17143,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" ht="13.5" spans="1:26">
+    <row r="519" spans="1:26">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16880,7 +17171,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" ht="13.5" spans="1:26">
+    <row r="520" spans="1:26">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16908,7 +17199,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" ht="13.5" spans="1:26">
+    <row r="521" spans="1:26">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16936,7 +17227,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" ht="13.5" spans="1:26">
+    <row r="522" spans="1:26">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16964,7 +17255,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" ht="13.5" spans="1:26">
+    <row r="523" spans="1:26">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16992,7 +17283,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" ht="13.5" spans="1:26">
+    <row r="524" spans="1:26">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17020,7 +17311,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" ht="13.5" spans="1:26">
+    <row r="525" spans="1:26">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17048,7 +17339,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" ht="13.5" spans="1:26">
+    <row r="526" spans="1:26">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -17076,7 +17367,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" ht="13.5" spans="1:26">
+    <row r="527" spans="1:26">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -17104,7 +17395,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" ht="13.5" spans="1:26">
+    <row r="528" spans="1:26">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17132,7 +17423,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" ht="13.5" spans="1:26">
+    <row r="529" spans="1:26">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17160,7 +17451,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" ht="13.5" spans="1:26">
+    <row r="530" spans="1:26">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17188,7 +17479,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" ht="13.5" spans="1:26">
+    <row r="531" spans="1:26">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17216,7 +17507,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" ht="13.5" spans="1:26">
+    <row r="532" spans="1:26">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17244,7 +17535,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" ht="13.5" spans="1:26">
+    <row r="533" spans="1:26">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17272,7 +17563,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" ht="13.5" spans="1:26">
+    <row r="534" spans="1:26">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17300,7 +17591,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" ht="13.5" spans="1:26">
+    <row r="535" spans="1:26">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17328,7 +17619,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" ht="13.5" spans="1:26">
+    <row r="536" spans="1:26">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17356,7 +17647,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" ht="13.5" spans="1:26">
+    <row r="537" spans="1:26">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17384,7 +17675,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" ht="13.5" spans="1:26">
+    <row r="538" spans="1:26">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17412,7 +17703,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" ht="13.5" spans="1:26">
+    <row r="539" spans="1:26">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17440,7 +17731,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" ht="13.5" spans="1:26">
+    <row r="540" spans="1:26">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17468,7 +17759,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" ht="13.5" spans="1:26">
+    <row r="541" spans="1:26">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17496,7 +17787,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" ht="13.5" spans="1:26">
+    <row r="542" spans="1:26">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17524,7 +17815,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" ht="13.5" spans="1:26">
+    <row r="543" spans="1:26">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17552,7 +17843,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" ht="13.5" spans="1:26">
+    <row r="544" spans="1:26">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17580,7 +17871,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" ht="13.5" spans="1:26">
+    <row r="545" spans="1:26">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17608,7 +17899,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" ht="13.5" spans="1:26">
+    <row r="546" spans="1:26">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17636,7 +17927,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" ht="13.5" spans="1:26">
+    <row r="547" spans="1:26">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17664,7 +17955,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" ht="13.5" spans="1:26">
+    <row r="548" spans="1:26">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17692,7 +17983,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" ht="13.5" spans="1:26">
+    <row r="549" spans="1:26">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17720,7 +18011,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" ht="13.5" spans="1:26">
+    <row r="550" spans="1:26">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17748,7 +18039,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" ht="13.5" spans="1:26">
+    <row r="551" spans="1:26">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17776,7 +18067,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" ht="13.5" spans="1:26">
+    <row r="552" spans="1:26">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17804,7 +18095,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" ht="13.5" spans="1:26">
+    <row r="553" spans="1:26">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17832,7 +18123,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" ht="13.5" spans="1:26">
+    <row r="554" spans="1:26">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17860,7 +18151,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" ht="13.5" spans="1:26">
+    <row r="555" spans="1:26">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17888,7 +18179,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" ht="13.5" spans="1:26">
+    <row r="556" spans="1:26">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17916,7 +18207,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" ht="13.5" spans="1:26">
+    <row r="557" spans="1:26">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17944,7 +18235,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" ht="13.5" spans="1:26">
+    <row r="558" spans="1:26">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17972,7 +18263,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" ht="13.5" spans="1:26">
+    <row r="559" spans="1:26">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -18000,7 +18291,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" ht="13.5" spans="1:26">
+    <row r="560" spans="1:26">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -18028,7 +18319,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" ht="13.5" spans="1:26">
+    <row r="561" spans="1:26">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -18056,7 +18347,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" ht="13.5" spans="1:26">
+    <row r="562" spans="1:26">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -18084,7 +18375,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" ht="13.5" spans="1:26">
+    <row r="563" spans="1:26">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -18112,7 +18403,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" ht="13.5" spans="1:26">
+    <row r="564" spans="1:26">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -18140,7 +18431,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" ht="13.5" spans="1:26">
+    <row r="565" spans="1:26">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -18168,7 +18459,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" ht="13.5" spans="1:26">
+    <row r="566" spans="1:26">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -18196,7 +18487,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" ht="13.5" spans="1:26">
+    <row r="567" spans="1:26">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -18224,7 +18515,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" ht="13.5" spans="1:26">
+    <row r="568" spans="1:26">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -18252,7 +18543,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" ht="13.5" spans="1:26">
+    <row r="569" spans="1:26">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -18280,7 +18571,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" ht="13.5" spans="1:26">
+    <row r="570" spans="1:26">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -18308,7 +18599,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" ht="13.5" spans="1:26">
+    <row r="571" spans="1:26">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -18336,7 +18627,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" ht="13.5" spans="1:26">
+    <row r="572" spans="1:26">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -18364,7 +18655,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" ht="13.5" spans="1:26">
+    <row r="573" spans="1:26">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -18392,7 +18683,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" ht="13.5" spans="1:26">
+    <row r="574" spans="1:26">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -18420,7 +18711,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" ht="13.5" spans="1:26">
+    <row r="575" spans="1:26">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18448,7 +18739,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" ht="13.5" spans="1:26">
+    <row r="576" spans="1:26">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18476,7 +18767,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" ht="13.5" spans="1:26">
+    <row r="577" spans="1:26">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18504,7 +18795,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" ht="13.5" spans="1:26">
+    <row r="578" spans="1:26">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18532,7 +18823,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" ht="13.5" spans="1:26">
+    <row r="579" spans="1:26">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18560,7 +18851,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" ht="13.5" spans="1:26">
+    <row r="580" spans="1:26">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18588,7 +18879,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" ht="13.5" spans="1:26">
+    <row r="581" spans="1:26">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18616,7 +18907,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" ht="13.5" spans="1:26">
+    <row r="582" spans="1:26">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18644,7 +18935,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" ht="13.5" spans="1:26">
+    <row r="583" spans="1:26">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18672,7 +18963,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" ht="13.5" spans="1:26">
+    <row r="584" spans="1:26">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18700,7 +18991,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" ht="13.5" spans="1:26">
+    <row r="585" spans="1:26">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18728,7 +19019,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" ht="13.5" spans="1:26">
+    <row r="586" spans="1:26">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18756,7 +19047,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" ht="13.5" spans="1:26">
+    <row r="587" spans="1:26">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18784,7 +19075,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" ht="13.5" spans="1:26">
+    <row r="588" spans="1:26">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18812,7 +19103,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" ht="13.5" spans="1:26">
+    <row r="589" spans="1:26">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18840,7 +19131,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" ht="13.5" spans="1:26">
+    <row r="590" spans="1:26">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18868,7 +19159,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" ht="13.5" spans="1:26">
+    <row r="591" spans="1:26">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18896,7 +19187,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" ht="13.5" spans="1:26">
+    <row r="592" spans="1:26">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18924,7 +19215,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" ht="13.5" spans="1:26">
+    <row r="593" spans="1:26">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18952,7 +19243,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" ht="13.5" spans="1:26">
+    <row r="594" spans="1:26">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18980,7 +19271,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" ht="13.5" spans="1:26">
+    <row r="595" spans="1:26">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -19008,7 +19299,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" ht="13.5" spans="1:26">
+    <row r="596" spans="1:26">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -19036,7 +19327,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" ht="13.5" spans="1:26">
+    <row r="597" spans="1:26">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -19064,7 +19355,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" ht="13.5" spans="1:26">
+    <row r="598" spans="1:26">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -19092,7 +19383,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" ht="13.5" spans="1:26">
+    <row r="599" spans="1:26">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -19120,7 +19411,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" ht="13.5" spans="1:26">
+    <row r="600" spans="1:26">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -19148,7 +19439,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" ht="13.5" spans="1:26">
+    <row r="601" spans="1:26">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -19176,7 +19467,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" ht="13.5" spans="1:26">
+    <row r="602" spans="1:26">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -19204,7 +19495,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" ht="13.5" spans="1:26">
+    <row r="603" spans="1:26">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -19232,7 +19523,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" ht="13.5" spans="1:26">
+    <row r="604" spans="1:26">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -19260,7 +19551,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" ht="13.5" spans="1:26">
+    <row r="605" spans="1:26">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -19288,7 +19579,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" ht="13.5" spans="1:26">
+    <row r="606" spans="1:26">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -19316,7 +19607,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" ht="13.5" spans="1:26">
+    <row r="607" spans="1:26">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -19344,7 +19635,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" ht="13.5" spans="1:26">
+    <row r="608" spans="1:26">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -19372,7 +19663,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" ht="13.5" spans="1:26">
+    <row r="609" spans="1:26">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -19400,7 +19691,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" ht="13.5" spans="1:26">
+    <row r="610" spans="1:26">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -19428,7 +19719,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" ht="13.5" spans="1:26">
+    <row r="611" spans="1:26">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19456,7 +19747,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" ht="13.5" spans="1:26">
+    <row r="612" spans="1:26">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19484,7 +19775,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" ht="13.5" spans="1:26">
+    <row r="613" spans="1:26">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19512,7 +19803,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" ht="13.5" spans="1:26">
+    <row r="614" spans="1:26">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19540,7 +19831,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" ht="13.5" spans="1:26">
+    <row r="615" spans="1:26">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19568,7 +19859,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" ht="13.5" spans="1:26">
+    <row r="616" spans="1:26">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19596,7 +19887,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" ht="13.5" spans="1:26">
+    <row r="617" spans="1:26">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19624,7 +19915,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" ht="13.5" spans="1:26">
+    <row r="618" spans="1:26">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19652,7 +19943,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" ht="13.5" spans="1:26">
+    <row r="619" spans="1:26">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19680,7 +19971,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" ht="13.5" spans="1:26">
+    <row r="620" spans="1:26">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19708,7 +19999,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" ht="13.5" spans="1:26">
+    <row r="621" spans="1:26">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19736,7 +20027,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" ht="13.5" spans="1:26">
+    <row r="622" spans="1:26">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19764,7 +20055,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" ht="13.5" spans="1:26">
+    <row r="623" spans="1:26">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19792,7 +20083,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" ht="13.5" spans="1:26">
+    <row r="624" spans="1:26">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19820,7 +20111,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" ht="13.5" spans="1:26">
+    <row r="625" spans="1:26">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19848,7 +20139,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" ht="13.5" spans="1:26">
+    <row r="626" spans="1:26">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19876,7 +20167,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" ht="13.5" spans="1:26">
+    <row r="627" spans="1:26">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19904,7 +20195,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" ht="13.5" spans="1:26">
+    <row r="628" spans="1:26">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19932,7 +20223,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" ht="13.5" spans="1:26">
+    <row r="629" spans="1:26">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19960,7 +20251,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" ht="13.5" spans="1:26">
+    <row r="630" spans="1:26">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19988,7 +20279,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" ht="13.5" spans="1:26">
+    <row r="631" spans="1:26">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -20016,7 +20307,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" ht="13.5" spans="1:26">
+    <row r="632" spans="1:26">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20044,7 +20335,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" ht="13.5" spans="1:26">
+    <row r="633" spans="1:26">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20072,7 +20363,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" ht="13.5" spans="1:26">
+    <row r="634" spans="1:26">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20100,7 +20391,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" ht="13.5" spans="1:26">
+    <row r="635" spans="1:26">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20128,7 +20419,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" ht="13.5" spans="1:26">
+    <row r="636" spans="1:26">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20156,7 +20447,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" ht="13.5" spans="1:26">
+    <row r="637" spans="1:26">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20184,7 +20475,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" ht="13.5" spans="1:26">
+    <row r="638" spans="1:26">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20212,7 +20503,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" ht="13.5" spans="1:26">
+    <row r="639" spans="1:26">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20240,7 +20531,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" ht="13.5" spans="1:26">
+    <row r="640" spans="1:26">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20268,7 +20559,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" ht="13.5" spans="1:26">
+    <row r="641" spans="1:26">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -20296,7 +20587,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" ht="13.5" spans="1:26">
+    <row r="642" spans="1:26">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -20324,7 +20615,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" ht="13.5" spans="1:26">
+    <row r="643" spans="1:26">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -20352,7 +20643,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" ht="13.5" spans="1:26">
+    <row r="644" spans="1:26">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -20380,7 +20671,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" ht="13.5" spans="1:26">
+    <row r="645" spans="1:26">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -20408,7 +20699,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" ht="13.5" spans="1:26">
+    <row r="646" spans="1:26">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -20436,7 +20727,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" ht="13.5" spans="1:26">
+    <row r="647" spans="1:26">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20464,7 +20755,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" ht="13.5" spans="1:26">
+    <row r="648" spans="1:26">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20492,7 +20783,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" ht="13.5" spans="1:26">
+    <row r="649" spans="1:26">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20520,7 +20811,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" ht="13.5" spans="1:26">
+    <row r="650" spans="1:26">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20548,7 +20839,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" ht="13.5" spans="1:26">
+    <row r="651" spans="1:26">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20576,7 +20867,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" ht="13.5" spans="1:26">
+    <row r="652" spans="1:26">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20604,7 +20895,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" ht="13.5" spans="1:26">
+    <row r="653" spans="1:26">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20632,7 +20923,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" ht="13.5" spans="1:26">
+    <row r="654" spans="1:26">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20660,7 +20951,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" ht="13.5" spans="1:26">
+    <row r="655" spans="1:26">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20688,7 +20979,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" ht="13.5" spans="1:26">
+    <row r="656" spans="1:26">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20716,7 +21007,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" ht="13.5" spans="1:26">
+    <row r="657" spans="1:26">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20744,7 +21035,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" ht="13.5" spans="1:26">
+    <row r="658" spans="1:26">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20772,7 +21063,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" ht="13.5" spans="1:26">
+    <row r="659" spans="1:26">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20800,7 +21091,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" ht="13.5" spans="1:26">
+    <row r="660" spans="1:26">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20828,7 +21119,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" ht="13.5" spans="1:26">
+    <row r="661" spans="1:26">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20856,7 +21147,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" ht="13.5" spans="1:26">
+    <row r="662" spans="1:26">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20884,7 +21175,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" ht="13.5" spans="1:26">
+    <row r="663" spans="1:26">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20912,7 +21203,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" ht="13.5" spans="1:26">
+    <row r="664" spans="1:26">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20940,7 +21231,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" ht="13.5" spans="1:26">
+    <row r="665" spans="1:26">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20968,7 +21259,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" ht="13.5" spans="1:26">
+    <row r="666" spans="1:26">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -20996,7 +21287,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" ht="13.5" spans="1:26">
+    <row r="667" spans="1:26">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -21024,7 +21315,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" ht="13.5" spans="1:26">
+    <row r="668" spans="1:26">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -21052,7 +21343,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" ht="13.5" spans="1:26">
+    <row r="669" spans="1:26">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -21080,7 +21371,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" ht="13.5" spans="1:26">
+    <row r="670" spans="1:26">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -21108,7 +21399,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" ht="13.5" spans="1:26">
+    <row r="671" spans="1:26">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -21136,7 +21427,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" ht="13.5" spans="1:26">
+    <row r="672" spans="1:26">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -21164,7 +21455,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" ht="13.5" spans="1:26">
+    <row r="673" spans="1:26">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -21192,7 +21483,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" ht="13.5" spans="1:26">
+    <row r="674" spans="1:26">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -21220,7 +21511,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" ht="13.5" spans="1:26">
+    <row r="675" spans="1:26">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -21248,7 +21539,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" ht="13.5" spans="1:26">
+    <row r="676" spans="1:26">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -21276,7 +21567,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" ht="13.5" spans="1:26">
+    <row r="677" spans="1:26">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -21304,7 +21595,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" ht="13.5" spans="1:26">
+    <row r="678" spans="1:26">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -21332,7 +21623,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" ht="13.5" spans="1:26">
+    <row r="679" spans="1:26">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -21360,7 +21651,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" ht="13.5" spans="1:26">
+    <row r="680" spans="1:26">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -21388,7 +21679,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" ht="13.5" spans="1:26">
+    <row r="681" spans="1:26">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -21416,7 +21707,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" ht="13.5" spans="1:26">
+    <row r="682" spans="1:26">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21444,7 +21735,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" ht="13.5" spans="1:26">
+    <row r="683" spans="1:26">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21472,7 +21763,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" ht="13.5" spans="1:26">
+    <row r="684" spans="1:26">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21500,7 +21791,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" ht="13.5" spans="1:26">
+    <row r="685" spans="1:26">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21528,7 +21819,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" ht="13.5" spans="1:26">
+    <row r="686" spans="1:26">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21556,7 +21847,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" ht="13.5" spans="1:26">
+    <row r="687" spans="1:26">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21584,7 +21875,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" ht="13.5" spans="1:26">
+    <row r="688" spans="1:26">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21612,7 +21903,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" ht="13.5" spans="1:26">
+    <row r="689" spans="1:26">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21640,7 +21931,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" ht="13.5" spans="1:26">
+    <row r="690" spans="1:26">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21668,7 +21959,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" ht="13.5" spans="1:26">
+    <row r="691" spans="1:26">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21696,7 +21987,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" ht="13.5" spans="1:26">
+    <row r="692" spans="1:26">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21724,7 +22015,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" ht="13.5" spans="1:26">
+    <row r="693" spans="1:26">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21752,7 +22043,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" ht="13.5" spans="1:26">
+    <row r="694" spans="1:26">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21780,7 +22071,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" ht="13.5" spans="1:26">
+    <row r="695" spans="1:26">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21808,7 +22099,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" ht="13.5" spans="1:26">
+    <row r="696" spans="1:26">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21836,7 +22127,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" ht="13.5" spans="1:26">
+    <row r="697" spans="1:26">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21864,7 +22155,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" ht="13.5" spans="1:26">
+    <row r="698" spans="1:26">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21892,7 +22183,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" ht="13.5" spans="1:26">
+    <row r="699" spans="1:26">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21920,7 +22211,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" ht="13.5" spans="1:26">
+    <row r="700" spans="1:26">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -21948,7 +22239,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" ht="13.5" spans="1:26">
+    <row r="701" spans="1:26">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -21976,7 +22267,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" ht="13.5" spans="1:26">
+    <row r="702" spans="1:26">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -22004,7 +22295,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" ht="13.5" spans="1:26">
+    <row r="703" spans="1:26">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -22032,7 +22323,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" ht="13.5" spans="1:26">
+    <row r="704" spans="1:26">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -22060,7 +22351,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" ht="13.5" spans="1:26">
+    <row r="705" spans="1:26">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -22088,7 +22379,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" ht="13.5" spans="1:26">
+    <row r="706" spans="1:26">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -22116,7 +22407,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" ht="13.5" spans="1:26">
+    <row r="707" spans="1:26">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -22144,7 +22435,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" ht="13.5" spans="1:26">
+    <row r="708" spans="1:26">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -22172,7 +22463,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" ht="13.5" spans="1:26">
+    <row r="709" spans="1:26">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -22200,7 +22491,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" ht="13.5" spans="1:26">
+    <row r="710" spans="1:26">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -22228,7 +22519,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" ht="13.5" spans="1:26">
+    <row r="711" spans="1:26">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -22256,7 +22547,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" ht="13.5" spans="1:26">
+    <row r="712" spans="1:26">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -22284,7 +22575,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" ht="13.5" spans="1:26">
+    <row r="713" spans="1:26">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -22312,7 +22603,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" ht="13.5" spans="1:26">
+    <row r="714" spans="1:26">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -22340,7 +22631,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" ht="13.5" spans="1:26">
+    <row r="715" spans="1:26">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -22368,7 +22659,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" ht="13.5" spans="1:26">
+    <row r="716" spans="1:26">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -22396,7 +22687,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" ht="13.5" spans="1:26">
+    <row r="717" spans="1:26">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -22424,7 +22715,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" ht="13.5" spans="1:26">
+    <row r="718" spans="1:26">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22452,7 +22743,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" ht="13.5" spans="1:26">
+    <row r="719" spans="1:26">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22480,7 +22771,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" ht="13.5" spans="1:26">
+    <row r="720" spans="1:26">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22508,7 +22799,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" ht="13.5" spans="1:26">
+    <row r="721" spans="1:26">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22536,7 +22827,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" ht="13.5" spans="1:26">
+    <row r="722" spans="1:26">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22564,7 +22855,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" ht="13.5" spans="1:26">
+    <row r="723" spans="1:26">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22592,7 +22883,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" ht="13.5" spans="1:26">
+    <row r="724" spans="1:26">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22620,7 +22911,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" ht="13.5" spans="1:26">
+    <row r="725" spans="1:26">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22648,7 +22939,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" ht="13.5" spans="1:26">
+    <row r="726" spans="1:26">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22676,7 +22967,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" ht="13.5" spans="1:26">
+    <row r="727" spans="1:26">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22704,7 +22995,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" ht="13.5" spans="1:26">
+    <row r="728" spans="1:26">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22732,7 +23023,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" ht="13.5" spans="1:26">
+    <row r="729" spans="1:26">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22760,7 +23051,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" ht="13.5" spans="1:26">
+    <row r="730" spans="1:26">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22788,7 +23079,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" ht="13.5" spans="1:26">
+    <row r="731" spans="1:26">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22816,7 +23107,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" ht="13.5" spans="1:26">
+    <row r="732" spans="1:26">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22844,7 +23135,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" ht="13.5" spans="1:26">
+    <row r="733" spans="1:26">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22872,7 +23163,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" ht="13.5" spans="1:26">
+    <row r="734" spans="1:26">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22900,7 +23191,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" ht="13.5" spans="1:26">
+    <row r="735" spans="1:26">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -22928,7 +23219,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" ht="13.5" spans="1:26">
+    <row r="736" spans="1:26">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -22956,7 +23247,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" ht="13.5" spans="1:26">
+    <row r="737" spans="1:26">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -22984,7 +23275,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" ht="13.5" spans="1:26">
+    <row r="738" spans="1:26">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -23012,7 +23303,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" ht="13.5" spans="1:26">
+    <row r="739" spans="1:26">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -23040,7 +23331,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" ht="13.5" spans="1:26">
+    <row r="740" spans="1:26">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -23068,7 +23359,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" ht="13.5" spans="1:26">
+    <row r="741" spans="1:26">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -23096,7 +23387,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" ht="13.5" spans="1:26">
+    <row r="742" spans="1:26">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -23124,7 +23415,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" ht="13.5" spans="1:26">
+    <row r="743" spans="1:26">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -23152,7 +23443,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" ht="13.5" spans="1:26">
+    <row r="744" spans="1:26">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -23180,7 +23471,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" ht="13.5" spans="1:26">
+    <row r="745" spans="1:26">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -23208,7 +23499,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" ht="13.5" spans="1:26">
+    <row r="746" spans="1:26">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -23236,7 +23527,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" ht="13.5" spans="1:26">
+    <row r="747" spans="1:26">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -23264,7 +23555,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" ht="13.5" spans="1:26">
+    <row r="748" spans="1:26">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -23292,7 +23583,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" ht="13.5" spans="1:26">
+    <row r="749" spans="1:26">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -23320,7 +23611,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" ht="13.5" spans="1:26">
+    <row r="750" spans="1:26">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -23348,7 +23639,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" ht="13.5" spans="1:26">
+    <row r="751" spans="1:26">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -23376,7 +23667,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" ht="13.5" spans="1:26">
+    <row r="752" spans="1:26">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -23404,7 +23695,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" ht="13.5" spans="1:26">
+    <row r="753" spans="1:26">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -23432,7 +23723,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" ht="13.5" spans="1:26">
+    <row r="754" spans="1:26">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23460,7 +23751,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" ht="13.5" spans="1:26">
+    <row r="755" spans="1:26">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23488,7 +23779,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" ht="13.5" spans="1:26">
+    <row r="756" spans="1:26">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23516,7 +23807,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" ht="13.5" spans="1:26">
+    <row r="757" spans="1:26">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23544,7 +23835,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" ht="13.5" spans="1:26">
+    <row r="758" spans="1:26">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23572,7 +23863,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" ht="13.5" spans="1:26">
+    <row r="759" spans="1:26">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23600,7 +23891,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" ht="13.5" spans="1:26">
+    <row r="760" spans="1:26">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23628,7 +23919,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" ht="13.5" spans="1:26">
+    <row r="761" spans="1:26">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23656,7 +23947,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" ht="13.5" spans="1:26">
+    <row r="762" spans="1:26">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23684,7 +23975,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" ht="13.5" spans="1:26">
+    <row r="763" spans="1:26">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23712,7 +24003,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" ht="13.5" spans="1:26">
+    <row r="764" spans="1:26">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23740,7 +24031,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" ht="13.5" spans="1:26">
+    <row r="765" spans="1:26">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23768,7 +24059,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" ht="13.5" spans="1:26">
+    <row r="766" spans="1:26">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23796,7 +24087,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" ht="13.5" spans="1:26">
+    <row r="767" spans="1:26">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23824,7 +24115,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" ht="13.5" spans="1:26">
+    <row r="768" spans="1:26">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23852,7 +24143,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" ht="13.5" spans="1:26">
+    <row r="769" spans="1:26">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -23880,7 +24171,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" ht="13.5" spans="1:26">
+    <row r="770" spans="1:26">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -23908,7 +24199,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" ht="13.5" spans="1:26">
+    <row r="771" spans="1:26">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -23936,7 +24227,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" ht="13.5" spans="1:26">
+    <row r="772" spans="1:26">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -23964,7 +24255,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" ht="13.5" spans="1:26">
+    <row r="773" spans="1:26">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -23992,7 +24283,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" ht="13.5" spans="1:26">
+    <row r="774" spans="1:26">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -24020,7 +24311,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" ht="13.5" spans="1:26">
+    <row r="775" spans="1:26">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -24048,7 +24339,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" ht="13.5" spans="1:26">
+    <row r="776" spans="1:26">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -24076,7 +24367,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" ht="13.5" spans="1:26">
+    <row r="777" spans="1:26">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -24104,7 +24395,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" ht="13.5" spans="1:26">
+    <row r="778" spans="1:26">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -24132,7 +24423,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" ht="13.5" spans="1:26">
+    <row r="779" spans="1:26">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -24160,7 +24451,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" ht="13.5" spans="1:26">
+    <row r="780" spans="1:26">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -24188,7 +24479,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" ht="13.5" spans="1:26">
+    <row r="781" spans="1:26">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -24216,7 +24507,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" ht="13.5" spans="1:26">
+    <row r="782" spans="1:26">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -24244,7 +24535,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" ht="13.5" spans="1:26">
+    <row r="783" spans="1:26">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -24272,7 +24563,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" ht="13.5" spans="1:26">
+    <row r="784" spans="1:26">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -24300,7 +24591,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" ht="13.5" spans="1:26">
+    <row r="785" spans="1:26">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -24328,7 +24619,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" ht="13.5" spans="1:26">
+    <row r="786" spans="1:26">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -24356,7 +24647,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" ht="13.5" spans="1:26">
+    <row r="787" spans="1:26">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -24384,7 +24675,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" ht="13.5" spans="1:26">
+    <row r="788" spans="1:26">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -24412,7 +24703,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" ht="13.5" spans="1:26">
+    <row r="789" spans="1:26">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -24440,7 +24731,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" ht="13.5" spans="1:26">
+    <row r="790" spans="1:26">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24468,7 +24759,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" ht="13.5" spans="1:26">
+    <row r="791" spans="1:26">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24496,7 +24787,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" ht="13.5" spans="1:26">
+    <row r="792" spans="1:26">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24524,7 +24815,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" ht="13.5" spans="1:26">
+    <row r="793" spans="1:26">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24552,7 +24843,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" ht="13.5" spans="1:26">
+    <row r="794" spans="1:26">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24580,7 +24871,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" ht="13.5" spans="1:26">
+    <row r="795" spans="1:26">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24608,7 +24899,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" ht="13.5" spans="1:26">
+    <row r="796" spans="1:26">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24636,7 +24927,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" ht="13.5" spans="1:26">
+    <row r="797" spans="1:26">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24664,7 +24955,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" ht="13.5" spans="1:26">
+    <row r="798" spans="1:26">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24692,7 +24983,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" ht="13.5" spans="1:26">
+    <row r="799" spans="1:26">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24720,7 +25011,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" ht="13.5" spans="1:26">
+    <row r="800" spans="1:26">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24748,7 +25039,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" ht="13.5" spans="1:26">
+    <row r="801" spans="1:26">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24776,7 +25067,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" ht="13.5" spans="1:26">
+    <row r="802" spans="1:26">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24804,7 +25095,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" ht="13.5" spans="1:26">
+    <row r="803" spans="1:26">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24832,7 +25123,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" ht="13.5" spans="1:26">
+    <row r="804" spans="1:26">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -24860,7 +25151,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" ht="13.5" spans="1:26">
+    <row r="805" spans="1:26">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -24888,7 +25179,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" ht="13.5" spans="1:26">
+    <row r="806" spans="1:26">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -24916,7 +25207,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" ht="13.5" spans="1:26">
+    <row r="807" spans="1:26">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -24944,7 +25235,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" ht="13.5" spans="1:26">
+    <row r="808" spans="1:26">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -24972,7 +25263,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" ht="13.5" spans="1:26">
+    <row r="809" spans="1:26">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -25000,7 +25291,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" ht="13.5" spans="1:26">
+    <row r="810" spans="1:26">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -25028,7 +25319,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" ht="13.5" spans="1:26">
+    <row r="811" spans="1:26">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -25056,7 +25347,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" ht="13.5" spans="1:26">
+    <row r="812" spans="1:26">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -25084,7 +25375,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" ht="13.5" spans="1:26">
+    <row r="813" spans="1:26">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -25112,7 +25403,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" ht="13.5" spans="1:26">
+    <row r="814" spans="1:26">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -25140,7 +25431,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" ht="13.5" spans="1:26">
+    <row r="815" spans="1:26">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -25168,7 +25459,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" ht="13.5" spans="1:26">
+    <row r="816" spans="1:26">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -25196,7 +25487,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" ht="13.5" spans="1:26">
+    <row r="817" spans="1:26">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -25224,7 +25515,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" ht="13.5" spans="1:26">
+    <row r="818" spans="1:26">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -25252,7 +25543,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" ht="13.5" spans="1:26">
+    <row r="819" spans="1:26">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -25280,7 +25571,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" ht="13.5" spans="1:26">
+    <row r="820" spans="1:26">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -25308,7 +25599,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" ht="13.5" spans="1:26">
+    <row r="821" spans="1:26">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -25336,7 +25627,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" ht="13.5" spans="1:26">
+    <row r="822" spans="1:26">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -25364,7 +25655,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" ht="13.5" spans="1:26">
+    <row r="823" spans="1:26">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -25392,7 +25683,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" ht="13.5" spans="1:26">
+    <row r="824" spans="1:26">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -25420,7 +25711,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" ht="13.5" spans="1:26">
+    <row r="825" spans="1:26">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25448,7 +25739,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" ht="13.5" spans="1:26">
+    <row r="826" spans="1:26">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25476,7 +25767,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" ht="13.5" spans="1:26">
+    <row r="827" spans="1:26">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25504,7 +25795,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" ht="13.5" spans="1:26">
+    <row r="828" spans="1:26">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25532,7 +25823,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" ht="13.5" spans="1:26">
+    <row r="829" spans="1:26">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25560,7 +25851,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" ht="13.5" spans="1:26">
+    <row r="830" spans="1:26">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25588,7 +25879,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" ht="13.5" spans="1:26">
+    <row r="831" spans="1:26">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25616,7 +25907,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" ht="13.5" spans="1:26">
+    <row r="832" spans="1:26">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25644,7 +25935,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" ht="13.5" spans="1:26">
+    <row r="833" spans="1:26">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25672,7 +25963,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" ht="13.5" spans="1:26">
+    <row r="834" spans="1:26">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25700,7 +25991,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" ht="13.5" spans="1:26">
+    <row r="835" spans="1:26">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25728,7 +26019,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" ht="13.5" spans="1:26">
+    <row r="836" spans="1:26">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25756,7 +26047,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" ht="13.5" spans="1:26">
+    <row r="837" spans="1:26">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25784,7 +26075,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" ht="13.5" spans="1:26">
+    <row r="838" spans="1:26">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25812,7 +26103,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" ht="13.5" spans="1:26">
+    <row r="839" spans="1:26">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -25840,7 +26131,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" ht="13.5" spans="1:26">
+    <row r="840" spans="1:26">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -25868,7 +26159,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" ht="13.5" spans="1:26">
+    <row r="841" spans="1:26">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -25896,7 +26187,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" ht="13.5" spans="1:26">
+    <row r="842" spans="1:26">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -25924,7 +26215,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" ht="13.5" spans="1:26">
+    <row r="843" spans="1:26">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -25952,7 +26243,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" ht="13.5" spans="1:26">
+    <row r="844" spans="1:26">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -25980,7 +26271,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" ht="13.5" spans="1:26">
+    <row r="845" spans="1:26">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -26008,7 +26299,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" ht="13.5" spans="1:26">
+    <row r="846" spans="1:26">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -26036,7 +26327,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" ht="13.5" spans="1:26">
+    <row r="847" spans="1:26">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -26064,7 +26355,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" ht="13.5" spans="1:26">
+    <row r="848" spans="1:26">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -26092,7 +26383,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" ht="13.5" spans="1:26">
+    <row r="849" spans="1:26">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -26120,7 +26411,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" ht="13.5" spans="1:26">
+    <row r="850" spans="1:26">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -26148,7 +26439,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" ht="13.5" spans="1:26">
+    <row r="851" spans="1:26">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -26176,7 +26467,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" ht="13.5" spans="1:26">
+    <row r="852" spans="1:26">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -26204,7 +26495,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" ht="13.5" spans="1:26">
+    <row r="853" spans="1:26">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -26232,7 +26523,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" ht="13.5" spans="1:26">
+    <row r="854" spans="1:26">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -26260,7 +26551,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" ht="13.5" spans="1:26">
+    <row r="855" spans="1:26">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -26288,7 +26579,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" ht="13.5" spans="1:26">
+    <row r="856" spans="1:26">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -26316,7 +26607,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" ht="13.5" spans="1:26">
+    <row r="857" spans="1:26">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -26344,7 +26635,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" ht="13.5" spans="1:26">
+    <row r="858" spans="1:26">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -26372,7 +26663,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" ht="13.5" spans="1:26">
+    <row r="859" spans="1:26">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -26400,7 +26691,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" ht="13.5" spans="1:26">
+    <row r="860" spans="1:26">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -26428,7 +26719,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" ht="13.5" spans="1:26">
+    <row r="861" spans="1:26">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26456,7 +26747,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" ht="13.5" spans="1:26">
+    <row r="862" spans="1:26">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26484,7 +26775,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" ht="13.5" spans="1:26">
+    <row r="863" spans="1:26">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26512,7 +26803,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" ht="13.5" spans="1:26">
+    <row r="864" spans="1:26">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26540,7 +26831,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" ht="13.5" spans="1:26">
+    <row r="865" spans="1:26">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26568,7 +26859,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" ht="13.5" spans="1:26">
+    <row r="866" spans="1:26">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26596,7 +26887,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" ht="13.5" spans="1:26">
+    <row r="867" spans="1:26">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26624,7 +26915,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" ht="13.5" spans="1:26">
+    <row r="868" spans="1:26">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26652,7 +26943,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" ht="13.5" spans="1:26">
+    <row r="869" spans="1:26">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26680,7 +26971,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" ht="13.5" spans="1:26">
+    <row r="870" spans="1:26">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26708,7 +26999,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" ht="13.5" spans="1:26">
+    <row r="871" spans="1:26">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26736,7 +27027,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" ht="13.5" spans="1:26">
+    <row r="872" spans="1:26">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26764,7 +27055,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" ht="13.5" spans="1:26">
+    <row r="873" spans="1:26">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -26792,7 +27083,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" ht="13.5" spans="1:26">
+    <row r="874" spans="1:26">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -26820,7 +27111,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" ht="13.5" spans="1:26">
+    <row r="875" spans="1:26">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -26848,7 +27139,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" ht="13.5" spans="1:26">
+    <row r="876" spans="1:26">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -26876,7 +27167,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" ht="13.5" spans="1:26">
+    <row r="877" spans="1:26">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -26904,7 +27195,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" ht="13.5" spans="1:26">
+    <row r="878" spans="1:26">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -26932,7 +27223,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" ht="13.5" spans="1:26">
+    <row r="879" spans="1:26">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -26960,7 +27251,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" ht="13.5" spans="1:26">
+    <row r="880" spans="1:26">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -26988,7 +27279,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" ht="13.5" spans="1:26">
+    <row r="881" spans="1:26">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -27016,7 +27307,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" ht="13.5" spans="1:26">
+    <row r="882" spans="1:26">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -27044,7 +27335,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" ht="13.5" spans="1:26">
+    <row r="883" spans="1:26">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -27072,7 +27363,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" ht="13.5" spans="1:26">
+    <row r="884" spans="1:26">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -27100,7 +27391,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" ht="13.5" spans="1:26">
+    <row r="885" spans="1:26">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -27128,7 +27419,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" ht="13.5" spans="1:26">
+    <row r="886" spans="1:26">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -27156,7 +27447,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" ht="13.5" spans="1:26">
+    <row r="887" spans="1:26">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -27184,7 +27475,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" ht="13.5" spans="1:26">
+    <row r="888" spans="1:26">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -27212,7 +27503,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" ht="13.5" spans="1:26">
+    <row r="889" spans="1:26">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -27240,7 +27531,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" ht="13.5" spans="1:26">
+    <row r="890" spans="1:26">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -27268,7 +27559,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" ht="13.5" spans="1:26">
+    <row r="891" spans="1:26">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -27296,7 +27587,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" ht="13.5" spans="1:26">
+    <row r="892" spans="1:26">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -27324,7 +27615,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" ht="13.5" spans="1:26">
+    <row r="893" spans="1:26">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -27352,7 +27643,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" ht="13.5" spans="1:26">
+    <row r="894" spans="1:26">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -27380,7 +27671,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" ht="13.5" spans="1:26">
+    <row r="895" spans="1:26">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -27408,7 +27699,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" ht="13.5" spans="1:26">
+    <row r="896" spans="1:26">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -27436,7 +27727,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" ht="13.5" spans="1:26">
+    <row r="897" spans="1:26">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27464,7 +27755,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" ht="13.5" spans="1:26">
+    <row r="898" spans="1:26">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27492,7 +27783,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" ht="13.5" spans="1:26">
+    <row r="899" spans="1:26">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27520,7 +27811,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" ht="13.5" spans="1:26">
+    <row r="900" spans="1:26">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27548,7 +27839,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" ht="13.5" spans="1:26">
+    <row r="901" spans="1:26">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27576,7 +27867,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" ht="13.5" spans="1:26">
+    <row r="902" spans="1:26">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27604,7 +27895,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" ht="13.5" spans="1:26">
+    <row r="903" spans="1:26">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27632,7 +27923,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" ht="13.5" spans="1:26">
+    <row r="904" spans="1:26">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27660,7 +27951,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" ht="13.5" spans="1:26">
+    <row r="905" spans="1:26">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27688,7 +27979,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" ht="13.5" spans="1:26">
+    <row r="906" spans="1:26">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27716,7 +28007,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" ht="13.5" spans="1:26">
+    <row r="907" spans="1:26">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -27744,7 +28035,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" ht="13.5" spans="1:26">
+    <row r="908" spans="1:26">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -27772,7 +28063,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" ht="13.5" spans="1:26">
+    <row r="909" spans="1:26">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -27800,7 +28091,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" ht="13.5" spans="1:26">
+    <row r="910" spans="1:26">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -27828,7 +28119,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" ht="13.5" spans="1:26">
+    <row r="911" spans="1:26">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -27856,7 +28147,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" ht="13.5" spans="1:26">
+    <row r="912" spans="1:26">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -27884,7 +28175,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" ht="13.5" spans="1:26">
+    <row r="913" spans="1:26">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -27912,7 +28203,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" ht="13.5" spans="1:26">
+    <row r="914" spans="1:26">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -27940,7 +28231,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" ht="13.5" spans="1:26">
+    <row r="915" spans="1:26">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -27968,7 +28259,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" ht="13.5" spans="1:26">
+    <row r="916" spans="1:26">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -27996,7 +28287,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" ht="13.5" spans="1:26">
+    <row r="917" spans="1:26">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -28024,7 +28315,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" ht="13.5" spans="1:26">
+    <row r="918" spans="1:26">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -28052,7 +28343,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" ht="13.5" spans="1:26">
+    <row r="919" spans="1:26">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -28080,7 +28371,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" ht="13.5" spans="1:26">
+    <row r="920" spans="1:26">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -28108,7 +28399,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" ht="13.5" spans="1:26">
+    <row r="921" spans="1:26">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -28136,7 +28427,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" ht="13.5" spans="1:26">
+    <row r="922" spans="1:26">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -28164,7 +28455,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" ht="13.5" spans="1:26">
+    <row r="923" spans="1:26">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -28192,7 +28483,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" ht="13.5" spans="1:26">
+    <row r="924" spans="1:26">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -28220,7 +28511,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" ht="13.5" spans="1:26">
+    <row r="925" spans="1:26">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -28248,7 +28539,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" ht="13.5" spans="1:26">
+    <row r="926" spans="1:26">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -28276,7 +28567,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" ht="13.5" spans="1:26">
+    <row r="927" spans="1:26">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -28304,7 +28595,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" ht="13.5" spans="1:26">
+    <row r="928" spans="1:26">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -28332,7 +28623,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" ht="13.5" spans="1:26">
+    <row r="929" spans="1:26">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -28360,7 +28651,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" ht="13.5" spans="1:26">
+    <row r="930" spans="1:26">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -28388,7 +28679,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" ht="13.5" spans="1:26">
+    <row r="931" spans="1:26">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -28416,7 +28707,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" ht="13.5" spans="1:26">
+    <row r="932" spans="1:26">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28444,7 +28735,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" ht="13.5" spans="1:26">
+    <row r="933" spans="1:26">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28472,7 +28763,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" ht="13.5" spans="1:26">
+    <row r="934" spans="1:26">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28500,7 +28791,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" ht="13.5" spans="1:26">
+    <row r="935" spans="1:26">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28528,7 +28819,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" ht="13.5" spans="1:26">
+    <row r="936" spans="1:26">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28556,7 +28847,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" ht="13.5" spans="1:26">
+    <row r="937" spans="1:26">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28584,7 +28875,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" ht="13.5" spans="1:26">
+    <row r="938" spans="1:26">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28612,7 +28903,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" ht="13.5" spans="1:26">
+    <row r="939" spans="1:26">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28640,7 +28931,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" ht="13.5" spans="1:26">
+    <row r="940" spans="1:26">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28668,7 +28959,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" ht="13.5" spans="1:26">
+    <row r="941" spans="1:26">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28696,7 +28987,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" ht="13.5" spans="1:26">
+    <row r="942" spans="1:26">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -28724,7 +29015,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" ht="13.5" spans="1:26">
+    <row r="943" spans="1:26">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -28752,7 +29043,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" ht="13.5" spans="1:26">
+    <row r="944" spans="1:26">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -28780,7 +29071,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" ht="13.5" spans="1:26">
+    <row r="945" spans="1:26">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -28808,7 +29099,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" ht="13.5" spans="1:26">
+    <row r="946" spans="1:26">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -28836,7 +29127,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" ht="13.5" spans="1:26">
+    <row r="947" spans="1:26">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -28864,7 +29155,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" ht="13.5" spans="1:26">
+    <row r="948" spans="1:26">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -28892,7 +29183,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" ht="13.5" spans="1:26">
+    <row r="949" spans="1:26">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -28920,7 +29211,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" ht="13.5" spans="1:26">
+    <row r="950" spans="1:26">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -28948,7 +29239,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" ht="13.5" spans="1:26">
+    <row r="951" spans="1:26">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -28976,7 +29267,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" ht="13.5" spans="1:26">
+    <row r="952" spans="1:26">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -29004,7 +29295,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" ht="13.5" spans="1:26">
+    <row r="953" spans="1:26">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -29032,7 +29323,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" ht="13.5" spans="1:26">
+    <row r="954" spans="1:26">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -29060,7 +29351,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" ht="13.5" spans="1:26">
+    <row r="955" spans="1:26">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -29088,7 +29379,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" ht="13.5" spans="1:26">
+    <row r="956" spans="1:26">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -29116,7 +29407,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" ht="13.5" spans="1:26">
+    <row r="957" spans="1:26">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -29144,7 +29435,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" ht="13.5" spans="1:26">
+    <row r="958" spans="1:26">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -29172,7 +29463,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" ht="13.5" spans="1:26">
+    <row r="959" spans="1:26">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -29200,7 +29491,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" ht="13.5" spans="1:26">
+    <row r="960" spans="1:26">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -29228,7 +29519,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" ht="13.5" spans="1:26">
+    <row r="961" spans="1:26">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -29256,7 +29547,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" ht="13.5" spans="1:26">
+    <row r="962" spans="1:26">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -29284,7 +29575,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" ht="13.5" spans="1:26">
+    <row r="963" spans="1:26">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -29312,7 +29603,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" ht="13.5" spans="1:26">
+    <row r="964" spans="1:26">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -29340,7 +29631,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" ht="13.5" spans="1:26">
+    <row r="965" spans="1:26">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -29368,7 +29659,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" ht="13.5" spans="1:26">
+    <row r="966" spans="1:26">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -29396,7 +29687,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" ht="13.5" spans="1:26">
+    <row r="967" spans="1:26">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -29424,7 +29715,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" ht="13.5" spans="1:26">
+    <row r="968" spans="1:26">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29452,7 +29743,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" ht="13.5" spans="1:26">
+    <row r="969" spans="1:26">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29480,7 +29771,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" ht="13.5" spans="1:26">
+    <row r="970" spans="1:26">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29508,7 +29799,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" ht="13.5" spans="1:26">
+    <row r="971" spans="1:26">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29536,7 +29827,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" ht="13.5" spans="1:26">
+    <row r="972" spans="1:26">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29564,7 +29855,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" ht="13.5" spans="1:26">
+    <row r="973" spans="1:26">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29592,7 +29883,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" ht="13.5" spans="1:26">
+    <row r="974" spans="1:26">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29620,7 +29911,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" ht="13.5" spans="1:26">
+    <row r="975" spans="1:26">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29648,7 +29939,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" ht="13.5" spans="1:26">
+    <row r="976" spans="1:26">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29676,7 +29967,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" ht="13.5" spans="1:26">
+    <row r="977" spans="1:26">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -29704,7 +29995,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" ht="13.5" spans="1:26">
+    <row r="978" spans="1:26">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -29732,7 +30023,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" ht="13.5" spans="1:26">
+    <row r="979" spans="1:26">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -29760,7 +30051,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" ht="13.5" spans="1:26">
+    <row r="980" spans="1:26">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -29788,7 +30079,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" ht="13.5" spans="1:26">
+    <row r="981" spans="1:26">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -29816,7 +30107,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" ht="13.5" spans="1:26">
+    <row r="982" spans="1:26">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -29844,7 +30135,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" ht="13.5" spans="1:26">
+    <row r="983" spans="1:26">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -29872,7 +30163,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" ht="13.5" spans="1:26">
+    <row r="984" spans="1:26">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -29900,7 +30191,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" ht="13.5" spans="1:26">
+    <row r="985" spans="1:26">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -29928,7 +30219,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" ht="13.5" spans="1:26">
+    <row r="986" spans="1:26">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -29956,7 +30247,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" ht="13.5" spans="1:26">
+    <row r="987" spans="1:26">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -29984,7 +30275,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" ht="13.5" spans="1:26">
+    <row r="988" spans="1:26">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -30012,7 +30303,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" ht="13.5" spans="1:26">
+    <row r="989" spans="1:26">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -30040,7 +30331,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" ht="13.5" spans="1:26">
+    <row r="990" spans="1:26">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -30068,7 +30359,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" ht="13.5" spans="1:26">
+    <row r="991" spans="1:26">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -30096,7 +30387,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" ht="13.5" spans="1:26">
+    <row r="992" spans="1:26">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -30124,7 +30415,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" ht="13.5" spans="1:26">
+    <row r="993" spans="1:26">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -30152,7 +30443,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" ht="13.5" spans="1:26">
+    <row r="994" spans="1:26">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -30180,7 +30471,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" ht="13.5" spans="1:26">
+    <row r="995" spans="1:26">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -30208,7 +30499,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" ht="13.5" spans="1:26">
+    <row r="996" spans="1:26">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -30236,7 +30527,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" ht="13.5" spans="1:26">
+    <row r="997" spans="1:26">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -30264,7 +30555,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" ht="13.5" spans="1:26">
+    <row r="998" spans="1:26">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -30291,62 +30582,6 @@
       <c r="X998" s="2"/>
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
-    </row>
-    <row r="999" ht="13.5" spans="1:26">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
-    <row r="1000" ht="13.5" spans="1:26">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/bdd/4.3/WFBS Recursos Rest.xlsx
+++ b/bdd/4.3/WFBS Recursos Rest.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <r>
       <rPr>
@@ -606,14 +606,62 @@
   <si>
     <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","comptid":"2","nivelid":"2"}</t>
   </si>
+  <si>
+    <t>respuesta Create</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/respuesta/json/create</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","respuesta":"no lo  se","puntos":"4","preguntaid":"1"}</t>
+  </si>
+  <si>
+    <t>respuesta ReadAll</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/respuesta/json/read_all</t>
+  </si>
+  <si>
+    <t>respuesta ReadId</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/respuesta/json/read_id</t>
+  </si>
+  <si>
+    <t>respuesta ReadPregunta</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/respuesta/json/read_pregunta</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","preguntaid":"2"}</t>
+  </si>
+  <si>
+    <t>respuesta Update</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/respuesta/json/update</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","id":"3","respuesta":"TAL VES","puntos":"3","preguntaid":"2"}</t>
+  </si>
+  <si>
+    <t>respuesta Delete</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ords/wfbs/respuesta/json/delete</t>
+  </si>
+  <si>
+    <t>{"idusuario":"1","token":"NOHR18UB3PUAO5HDI00UMLV6S","id":"3"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -651,29 +699,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,36 +744,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -733,9 +752,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,19 +782,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -771,16 +797,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,7 +857,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,25 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,25 +965,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,19 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,19 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,61 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,42 +1055,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,16 +1100,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,76 +1128,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,70 +1184,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1573,13 +1621,13 @@
   <sheetPr/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="87.2916666666667" customWidth="1"/>
+    <col min="2" max="2" width="89.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="43" customHeight="1" spans="1:26">
@@ -10371,7 +10419,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" ht="13.5" spans="1:26">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -10399,7 +10447,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" ht="13.5" spans="1:26">
       <c r="A285" s="3" t="s">
         <v>1</v>
       </c>
@@ -10431,7 +10479,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" ht="13.5" spans="1:26">
       <c r="A286" s="3" t="s">
         <v>3</v>
       </c>
@@ -10463,7 +10511,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" ht="13.5" spans="1:26">
       <c r="A287" s="3" t="s">
         <v>5</v>
       </c>
@@ -10495,7 +10543,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" ht="13.5" spans="1:26">
       <c r="A288" s="3" t="s">
         <v>7</v>
       </c>
@@ -10527,7 +10575,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" ht="13.5" spans="1:26">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10555,7 +10603,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" ht="13.5" spans="1:26">
       <c r="A290" s="3" t="s">
         <v>1</v>
       </c>
@@ -10587,7 +10635,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" ht="13.5" spans="1:26">
       <c r="A291" s="3" t="s">
         <v>3</v>
       </c>
@@ -10619,7 +10667,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" ht="13.5" spans="1:26">
       <c r="A292" s="3" t="s">
         <v>5</v>
       </c>
@@ -10651,7 +10699,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" ht="13.5" spans="1:26">
       <c r="A293" s="3" t="s">
         <v>7</v>
       </c>
@@ -10683,7 +10731,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" ht="13.5" spans="1:26">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10711,7 +10759,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" ht="13.5" spans="1:26">
       <c r="A295" s="3" t="s">
         <v>1</v>
       </c>
@@ -10743,7 +10791,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" ht="13.5" spans="1:26">
       <c r="A296" s="3" t="s">
         <v>3</v>
       </c>
@@ -10775,7 +10823,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" ht="13.5" spans="1:26">
       <c r="A297" s="3" t="s">
         <v>5</v>
       </c>
@@ -10807,7 +10855,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" ht="13.5" spans="1:26">
       <c r="A298" s="3" t="s">
         <v>7</v>
       </c>
@@ -10839,7 +10887,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" ht="13.5" spans="1:26">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10867,7 +10915,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" ht="13.5" spans="1:26">
       <c r="A300" s="3" t="s">
         <v>1</v>
       </c>
@@ -10899,7 +10947,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" ht="13.5" spans="1:26">
       <c r="A301" s="3" t="s">
         <v>3</v>
       </c>
@@ -10931,7 +10979,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" ht="13.5" spans="1:26">
       <c r="A302" s="3" t="s">
         <v>5</v>
       </c>
@@ -10963,7 +11011,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" ht="13.5" spans="1:26">
       <c r="A303" s="3" t="s">
         <v>7</v>
       </c>
@@ -10995,7 +11043,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" ht="13.5" spans="1:26">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -11023,7 +11071,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" ht="13.5" spans="1:26">
       <c r="A305" s="3" t="s">
         <v>1</v>
       </c>
@@ -11055,7 +11103,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" ht="13.5" spans="1:26">
       <c r="A306" s="3" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11135,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" ht="13.5" spans="1:26">
       <c r="A307" s="3" t="s">
         <v>5</v>
       </c>
@@ -11119,7 +11167,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" ht="13.5" spans="1:26">
       <c r="A308" s="3" t="s">
         <v>7</v>
       </c>
@@ -11151,7 +11199,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" ht="13.5" spans="1:26">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -11179,7 +11227,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" ht="13.5" spans="1:26">
       <c r="A310" s="3" t="s">
         <v>1</v>
       </c>
@@ -11211,7 +11259,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" ht="13.5" spans="1:26">
       <c r="A311" s="3" t="s">
         <v>3</v>
       </c>
@@ -11243,7 +11291,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" ht="13.5" spans="1:26">
       <c r="A312" s="3" t="s">
         <v>5</v>
       </c>
@@ -11275,7 +11323,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" ht="13.5" spans="1:26">
       <c r="A313" s="3" t="s">
         <v>7</v>
       </c>
@@ -11307,7 +11355,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" ht="13.5" spans="1:26">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -11335,7 +11383,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" ht="13.5" spans="1:26">
       <c r="A315" s="3" t="s">
         <v>1</v>
       </c>
@@ -11367,7 +11415,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" ht="13.5" spans="1:26">
       <c r="A316" s="3" t="s">
         <v>3</v>
       </c>
@@ -11399,7 +11447,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" ht="13.5" spans="1:26">
       <c r="A317" s="3" t="s">
         <v>5</v>
       </c>
@@ -11431,7 +11479,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" ht="13.5" spans="1:26">
       <c r="A318" s="3" t="s">
         <v>7</v>
       </c>
@@ -11463,7 +11511,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" ht="13.5" spans="1:26">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -11491,7 +11539,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" ht="13.5" spans="1:26">
       <c r="A320" s="3" t="s">
         <v>1</v>
       </c>
@@ -11523,7 +11571,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" ht="13.5" spans="1:26">
       <c r="A321" s="3" t="s">
         <v>3</v>
       </c>
@@ -11555,7 +11603,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" ht="13.5" spans="1:26">
       <c r="A322" s="3" t="s">
         <v>5</v>
       </c>
@@ -11587,7 +11635,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" ht="13.5" spans="1:26">
       <c r="A323" s="3" t="s">
         <v>7</v>
       </c>
@@ -11619,7 +11667,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" ht="13.5" spans="1:26">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11647,7 +11695,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" ht="13.5" spans="1:26">
       <c r="A325" s="3" t="s">
         <v>1</v>
       </c>
@@ -11679,7 +11727,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" ht="13.5" spans="1:26">
       <c r="A326" s="3" t="s">
         <v>3</v>
       </c>
@@ -11711,7 +11759,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" ht="13.5" spans="1:26">
       <c r="A327" s="3" t="s">
         <v>5</v>
       </c>
@@ -11743,7 +11791,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" ht="13.5" spans="1:26">
       <c r="A328" s="3" t="s">
         <v>7</v>
       </c>
@@ -11775,7 +11823,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" ht="13.5" spans="1:26">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11803,7 +11851,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" ht="13.5" spans="1:26">
       <c r="A330" s="3" t="s">
         <v>1</v>
       </c>
@@ -11835,7 +11883,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" ht="13.5" spans="1:26">
       <c r="A331" s="3" t="s">
         <v>3</v>
       </c>
@@ -11867,7 +11915,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" ht="13.5" spans="1:26">
       <c r="A332" s="3" t="s">
         <v>5</v>
       </c>
@@ -11899,7 +11947,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" ht="13.5" spans="1:26">
       <c r="A333" s="3" t="s">
         <v>7</v>
       </c>
@@ -11931,7 +11979,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" ht="13.5" spans="1:26">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11959,7 +12007,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" ht="13.5" spans="1:26">
       <c r="A335" s="3" t="s">
         <v>1</v>
       </c>
@@ -11991,7 +12039,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" ht="13.5" spans="1:26">
       <c r="A336" s="3" t="s">
         <v>3</v>
       </c>
@@ -12023,7 +12071,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" ht="13.5" spans="1:26">
       <c r="A337" s="3" t="s">
         <v>5</v>
       </c>
@@ -12055,7 +12103,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26">
+    <row r="338" ht="13.5" spans="1:26">
       <c r="A338" s="3" t="s">
         <v>7</v>
       </c>
@@ -12087,7 +12135,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26">
+    <row r="339" ht="13.5" spans="1:26">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -12115,7 +12163,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26">
+    <row r="340" ht="13.5" spans="1:26">
       <c r="A340" s="3" t="s">
         <v>1</v>
       </c>
@@ -12147,7 +12195,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" ht="13.5" spans="1:26">
       <c r="A341" s="3" t="s">
         <v>3</v>
       </c>
@@ -12179,7 +12227,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" ht="13.5" spans="1:26">
       <c r="A342" s="3" t="s">
         <v>5</v>
       </c>
@@ -12211,7 +12259,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26">
+    <row r="343" ht="13.5" spans="1:26">
       <c r="A343" s="3" t="s">
         <v>7</v>
       </c>
@@ -12243,7 +12291,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" ht="13.5" spans="1:26">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -12271,9 +12319,13 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
+    <row r="345" ht="13.5" spans="1:26">
+      <c r="A345" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -12299,9 +12351,13 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
+    <row r="346" ht="13.5" spans="1:26">
+      <c r="A346" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -12327,9 +12383,13 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
+    <row r="347" ht="13.5" spans="1:26">
+      <c r="A347" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -12355,9 +12415,13 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
+    <row r="348" ht="13.5" spans="1:26">
+      <c r="A348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -12383,7 +12447,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26">
+    <row r="349" ht="13.5" spans="1:26">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -12411,9 +12475,13 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
+    <row r="350" ht="13.5" spans="1:26">
+      <c r="A350" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -12439,9 +12507,13 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+    <row r="351" ht="13.5" spans="1:26">
+      <c r="A351" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -12467,9 +12539,13 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
+    <row r="352" ht="13.5" spans="1:26">
+      <c r="A352" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -12495,9 +12571,13 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
+    <row r="353" ht="13.5" spans="1:26">
+      <c r="A353" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -12523,7 +12603,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26">
+    <row r="354" ht="13.5" spans="1:26">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -12551,9 +12631,13 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
+    <row r="355" ht="13.5" spans="1:26">
+      <c r="A355" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -12579,9 +12663,13 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
+    <row r="356" ht="13.5" spans="1:26">
+      <c r="A356" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -12607,9 +12695,13 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
+    <row r="357" ht="13.5" spans="1:26">
+      <c r="A357" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -12635,9 +12727,13 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
+    <row r="358" ht="13.5" spans="1:26">
+      <c r="A358" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -12663,7 +12759,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" ht="13.5" spans="1:26">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12691,9 +12787,13 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
+    <row r="360" ht="13.5" spans="1:26">
+      <c r="A360" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -12719,9 +12819,13 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
+    <row r="361" ht="13.5" spans="1:26">
+      <c r="A361" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -12747,9 +12851,13 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
+    <row r="362" ht="13.5" spans="1:26">
+      <c r="A362" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -12775,9 +12883,13 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
+    <row r="363" ht="13.5" spans="1:26">
+      <c r="A363" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -12803,7 +12915,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" ht="13.5" spans="1:26">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12831,9 +12943,13 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
+    <row r="365" ht="13.5" spans="1:26">
+      <c r="A365" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -12859,9 +12975,13 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
+    <row r="366" ht="13.5" spans="1:26">
+      <c r="A366" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -12887,9 +13007,13 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
+    <row r="367" ht="13.5" spans="1:26">
+      <c r="A367" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -12915,9 +13039,13 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
+    <row r="368" ht="13.5" spans="1:26">
+      <c r="A368" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -12943,7 +13071,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26">
+    <row r="369" ht="13.5" spans="1:26">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12971,9 +13099,13 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
+    <row r="370" ht="13.5" spans="1:26">
+      <c r="A370" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -12999,9 +13131,13 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
+    <row r="371" ht="13.5" spans="1:26">
+      <c r="A371" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -13027,9 +13163,13 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
+    <row r="372" ht="13.5" spans="1:26">
+      <c r="A372" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -13055,9 +13195,13 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
+    <row r="373" ht="13.5" spans="1:26">
+      <c r="A373" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -13083,7 +13227,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26">
+    <row r="374" ht="13.5" spans="1:26">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -13111,7 +13255,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26">
+    <row r="375" ht="13.5" spans="1:26">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -13139,7 +13283,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26">
+    <row r="376" ht="13.5" spans="1:26">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -13167,7 +13311,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26">
+    <row r="377" ht="13.5" spans="1:26">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -13195,7 +13339,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26">
+    <row r="378" ht="13.5" spans="1:26">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -13223,7 +13367,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26">
+    <row r="379" ht="13.5" spans="1:26">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -13251,7 +13395,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26">
+    <row r="380" ht="13.5" spans="1:26">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -13279,7 +13423,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26">
+    <row r="381" ht="13.5" spans="1:26">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -13307,7 +13451,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26">
+    <row r="382" ht="13.5" spans="1:26">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -13335,7 +13479,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26">
+    <row r="383" ht="13.5" spans="1:26">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -13363,7 +13507,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26">
+    <row r="384" ht="13.5" spans="1:26">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -13391,7 +13535,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26">
+    <row r="385" ht="13.5" spans="1:26">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -13419,7 +13563,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26">
+    <row r="386" ht="13.5" spans="1:26">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -13447,7 +13591,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26">
+    <row r="387" ht="13.5" spans="1:26">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -13475,7 +13619,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26">
+    <row r="388" ht="13.5" spans="1:26">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -13503,7 +13647,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26">
+    <row r="389" ht="13.5" spans="1:26">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -13531,7 +13675,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26">
+    <row r="390" ht="13.5" spans="1:26">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13559,7 +13703,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26">
+    <row r="391" ht="13.5" spans="1:26">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13587,7 +13731,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26">
+    <row r="392" ht="13.5" spans="1:26">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13615,7 +13759,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26">
+    <row r="393" ht="13.5" spans="1:26">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13643,7 +13787,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26">
+    <row r="394" ht="13.5" spans="1:26">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13671,7 +13815,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26">
+    <row r="395" ht="13.5" spans="1:26">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13699,7 +13843,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26">
+    <row r="396" ht="13.5" spans="1:26">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13727,7 +13871,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26">
+    <row r="397" ht="13.5" spans="1:26">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13755,7 +13899,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26">
+    <row r="398" ht="13.5" spans="1:26">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13783,7 +13927,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26">
+    <row r="399" ht="13.5" spans="1:26">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13811,7 +13955,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26">
+    <row r="400" ht="13.5" spans="1:26">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13839,7 +13983,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26">
+    <row r="401" ht="13.5" spans="1:26">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13867,7 +14011,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26">
+    <row r="402" ht="13.5" spans="1:26">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13895,7 +14039,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26">
+    <row r="403" ht="13.5" spans="1:26">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13923,7 +14067,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26">
+    <row r="404" ht="13.5" spans="1:26">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13951,7 +14095,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26">
+    <row r="405" ht="13.5" spans="1:26">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13979,7 +14123,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26">
+    <row r="406" ht="13.5" spans="1:26">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -14007,7 +14151,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26">
+    <row r="407" ht="13.5" spans="1:26">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -14035,7 +14179,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26">
+    <row r="408" ht="13.5" spans="1:26">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -14063,7 +14207,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26">
+    <row r="409" ht="13.5" spans="1:26">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -14091,7 +14235,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26">
+    <row r="410" ht="13.5" spans="1:26">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -14119,7 +14263,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26">
+    <row r="411" ht="13.5" spans="1:26">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -14147,7 +14291,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26">
+    <row r="412" ht="13.5" spans="1:26">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -14175,7 +14319,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26">
+    <row r="413" ht="13.5" spans="1:26">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -14203,7 +14347,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26">
+    <row r="414" ht="13.5" spans="1:26">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -14231,7 +14375,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26">
+    <row r="415" ht="13.5" spans="1:26">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -14259,7 +14403,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26">
+    <row r="416" ht="13.5" spans="1:26">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -14287,7 +14431,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26">
+    <row r="417" ht="13.5" spans="1:26">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -14315,7 +14459,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26">
+    <row r="418" ht="13.5" spans="1:26">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -14343,7 +14487,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26">
+    <row r="419" ht="13.5" spans="1:26">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -14371,7 +14515,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26">
+    <row r="420" ht="13.5" spans="1:26">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -14399,7 +14543,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26">
+    <row r="421" ht="13.5" spans="1:26">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -14427,7 +14571,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26">
+    <row r="422" ht="13.5" spans="1:26">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -14455,7 +14599,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26">
+    <row r="423" ht="13.5" spans="1:26">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -14483,7 +14627,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26">
+    <row r="424" ht="13.5" spans="1:26">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -14511,7 +14655,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26">
+    <row r="425" ht="13.5" spans="1:26">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14539,7 +14683,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26">
+    <row r="426" ht="13.5" spans="1:26">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14567,7 +14711,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26">
+    <row r="427" ht="13.5" spans="1:26">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14595,7 +14739,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26">
+    <row r="428" ht="13.5" spans="1:26">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14623,7 +14767,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26">
+    <row r="429" ht="13.5" spans="1:26">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14651,7 +14795,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26">
+    <row r="430" ht="13.5" spans="1:26">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14679,7 +14823,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26">
+    <row r="431" ht="13.5" spans="1:26">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14707,7 +14851,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26">
+    <row r="432" ht="13.5" spans="1:26">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14735,7 +14879,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26">
+    <row r="433" ht="13.5" spans="1:26">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14763,7 +14907,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26">
+    <row r="434" ht="13.5" spans="1:26">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14791,7 +14935,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26">
+    <row r="435" ht="13.5" spans="1:26">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14819,7 +14963,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26">
+    <row r="436" ht="13.5" spans="1:26">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14847,7 +14991,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26">
+    <row r="437" ht="13.5" spans="1:26">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14875,7 +15019,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26">
+    <row r="438" ht="13.5" spans="1:26">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14903,7 +15047,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26">
+    <row r="439" ht="13.5" spans="1:26">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14931,7 +15075,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26">
+    <row r="440" ht="13.5" spans="1:26">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14959,7 +15103,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26">
+    <row r="441" ht="13.5" spans="1:26">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14987,7 +15131,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26">
+    <row r="442" ht="13.5" spans="1:26">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -15015,7 +15159,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26">
+    <row r="443" ht="13.5" spans="1:26">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -15043,7 +15187,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26">
+    <row r="444" ht="13.5" spans="1:26">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -15071,7 +15215,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26">
+    <row r="445" ht="13.5" spans="1:26">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -15099,7 +15243,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26">
+    <row r="446" ht="13.5" spans="1:26">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -15127,7 +15271,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26">
+    <row r="447" ht="13.5" spans="1:26">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -15155,7 +15299,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26">
+    <row r="448" ht="13.5" spans="1:26">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -15183,7 +15327,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26">
+    <row r="449" ht="13.5" spans="1:26">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -15211,7 +15355,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26">
+    <row r="450" ht="13.5" spans="1:26">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -15239,7 +15383,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26">
+    <row r="451" ht="13.5" spans="1:26">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -15267,7 +15411,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26">
+    <row r="452" ht="13.5" spans="1:26">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -15295,7 +15439,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26">
+    <row r="453" ht="13.5" spans="1:26">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -15323,7 +15467,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26">
+    <row r="454" ht="13.5" spans="1:26">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -15351,7 +15495,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26">
+    <row r="455" ht="13.5" spans="1:26">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -15379,7 +15523,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26">
+    <row r="456" ht="13.5" spans="1:26">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -15407,7 +15551,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26">
+    <row r="457" ht="13.5" spans="1:26">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -15435,7 +15579,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26">
+    <row r="458" ht="13.5" spans="1:26">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -15463,7 +15607,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26">
+    <row r="459" ht="13.5" spans="1:26">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15491,7 +15635,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26">
+    <row r="460" ht="13.5" spans="1:26">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15519,7 +15663,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26">
+    <row r="461" ht="13.5" spans="1:26">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15547,7 +15691,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26">
+    <row r="462" ht="13.5" spans="1:26">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15575,7 +15719,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26">
+    <row r="463" ht="13.5" spans="1:26">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15603,7 +15747,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26">
+    <row r="464" ht="13.5" spans="1:26">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15631,7 +15775,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26">
+    <row r="465" ht="13.5" spans="1:26">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15659,7 +15803,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26">
+    <row r="466" ht="13.5" spans="1:26">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15687,7 +15831,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26">
+    <row r="467" ht="13.5" spans="1:26">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15715,7 +15859,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26">
+    <row r="468" ht="13.5" spans="1:26">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15743,7 +15887,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26">
+    <row r="469" ht="13.5" spans="1:26">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15771,7 +15915,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26">
+    <row r="470" ht="13.5" spans="1:26">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15799,7 +15943,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26">
+    <row r="471" ht="13.5" spans="1:26">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15827,7 +15971,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26">
+    <row r="472" ht="13.5" spans="1:26">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15855,7 +15999,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26">
+    <row r="473" ht="13.5" spans="1:26">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15883,7 +16027,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26">
+    <row r="474" ht="13.5" spans="1:26">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15911,7 +16055,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26">
+    <row r="475" ht="13.5" spans="1:26">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15939,7 +16083,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26">
+    <row r="476" ht="13.5" spans="1:26">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15967,7 +16111,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26">
+    <row r="477" ht="13.5" spans="1:26">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15995,7 +16139,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26">
+    <row r="478" ht="13.5" spans="1:26">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -16023,7 +16167,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26">
+    <row r="479" ht="13.5" spans="1:26">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -16051,7 +16195,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26">
+    <row r="480" ht="13.5" spans="1:26">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -16079,7 +16223,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26">
+    <row r="481" ht="13.5" spans="1:26">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -16107,7 +16251,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26">
+    <row r="482" ht="13.5" spans="1:26">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -16135,7 +16279,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26">
+    <row r="483" ht="13.5" spans="1:26">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -16163,7 +16307,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26">
+    <row r="484" ht="13.5" spans="1:26">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -16191,7 +16335,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26">
+    <row r="485" ht="13.5" spans="1:26">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -16219,7 +16363,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26">
+    <row r="486" ht="13.5" spans="1:26">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -16247,7 +16391,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26">
+    <row r="487" ht="13.5" spans="1:26">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -16275,7 +16419,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26">
+    <row r="488" ht="13.5" spans="1:26">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -16303,7 +16447,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26">
+    <row r="489" ht="13.5" spans="1:26">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -16331,7 +16475,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26">
+    <row r="490" ht="13.5" spans="1:26">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -16359,7 +16503,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26">
+    <row r="491" ht="13.5" spans="1:26">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -16387,7 +16531,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26">
+    <row r="492" ht="13.5" spans="1:26">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -16415,7 +16559,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26">
+    <row r="493" ht="13.5" spans="1:26">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -16443,7 +16587,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26">
+    <row r="494" ht="13.5" spans="1:26">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16471,7 +16615,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26">
+    <row r="495" ht="13.5" spans="1:26">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16499,7 +16643,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26">
+    <row r="496" ht="13.5" spans="1:26">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16527,7 +16671,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26">
+    <row r="497" ht="13.5" spans="1:26">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16555,7 +16699,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26">
+    <row r="498" ht="13.5" spans="1:26">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16583,7 +16727,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26">
+    <row r="499" ht="13.5" spans="1:26">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16611,7 +16755,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26">
+    <row r="500" ht="13.5" spans="1:26">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16639,7 +16783,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26">
+    <row r="501" ht="13.5" spans="1:26">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16667,7 +16811,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" ht="13.5" spans="1:26">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16695,7 +16839,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26">
+    <row r="503" ht="13.5" spans="1:26">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16723,7 +16867,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26">
+    <row r="504" ht="13.5" spans="1:26">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16751,7 +16895,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26">
+    <row r="505" ht="13.5" spans="1:26">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16779,7 +16923,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26">
+    <row r="506" ht="13.5" spans="1:26">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16807,7 +16951,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26">
+    <row r="507" ht="13.5" spans="1:26">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16835,7 +16979,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26">
+    <row r="508" ht="13.5" spans="1:26">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16863,7 +17007,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26">
+    <row r="509" ht="13.5" spans="1:26">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16891,7 +17035,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26">
+    <row r="510" ht="13.5" spans="1:26">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16919,7 +17063,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26">
+    <row r="511" ht="13.5" spans="1:26">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16947,7 +17091,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26">
+    <row r="512" ht="13.5" spans="1:26">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16975,7 +17119,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26">
+    <row r="513" ht="13.5" spans="1:26">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -17003,7 +17147,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26">
+    <row r="514" ht="13.5" spans="1:26">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -17031,7 +17175,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26">
+    <row r="515" ht="13.5" spans="1:26">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -17059,7 +17203,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26">
+    <row r="516" ht="13.5" spans="1:26">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -17087,7 +17231,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26">
+    <row r="517" ht="13.5" spans="1:26">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17115,7 +17259,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26">
+    <row r="518" ht="13.5" spans="1:26">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17143,7 +17287,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26">
+    <row r="519" ht="13.5" spans="1:26">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17171,7 +17315,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26">
+    <row r="520" ht="13.5" spans="1:26">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17199,7 +17343,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26">
+    <row r="521" ht="13.5" spans="1:26">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17227,7 +17371,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26">
+    <row r="522" ht="13.5" spans="1:26">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17255,7 +17399,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26">
+    <row r="523" ht="13.5" spans="1:26">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17283,7 +17427,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26">
+    <row r="524" ht="13.5" spans="1:26">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17311,7 +17455,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26">
+    <row r="525" ht="13.5" spans="1:26">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17339,7 +17483,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26">
+    <row r="526" ht="13.5" spans="1:26">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -17367,7 +17511,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26">
+    <row r="527" ht="13.5" spans="1:26">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -17395,7 +17539,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26">
+    <row r="528" ht="13.5" spans="1:26">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17423,7 +17567,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26">
+    <row r="529" ht="13.5" spans="1:26">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17451,7 +17595,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26">
+    <row r="530" ht="13.5" spans="1:26">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17479,7 +17623,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26">
+    <row r="531" ht="13.5" spans="1:26">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17507,7 +17651,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26">
+    <row r="532" ht="13.5" spans="1:26">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17535,7 +17679,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26">
+    <row r="533" ht="13.5" spans="1:26">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17563,7 +17707,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26">
+    <row r="534" ht="13.5" spans="1:26">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17591,7 +17735,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26">
+    <row r="535" ht="13.5" spans="1:26">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17619,7 +17763,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26">
+    <row r="536" ht="13.5" spans="1:26">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17647,7 +17791,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26">
+    <row r="537" ht="13.5" spans="1:26">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17675,7 +17819,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26">
+    <row r="538" ht="13.5" spans="1:26">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17703,7 +17847,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26">
+    <row r="539" ht="13.5" spans="1:26">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17731,7 +17875,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26">
+    <row r="540" ht="13.5" spans="1:26">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17759,7 +17903,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26">
+    <row r="541" ht="13.5" spans="1:26">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17787,7 +17931,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26">
+    <row r="542" ht="13.5" spans="1:26">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17815,7 +17959,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26">
+    <row r="543" ht="13.5" spans="1:26">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17843,7 +17987,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26">
+    <row r="544" ht="13.5" spans="1:26">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17871,7 +18015,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26">
+    <row r="545" ht="13.5" spans="1:26">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17899,7 +18043,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26">
+    <row r="546" ht="13.5" spans="1:26">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17927,7 +18071,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26">
+    <row r="547" ht="13.5" spans="1:26">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17955,7 +18099,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26">
+    <row r="548" ht="13.5" spans="1:26">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17983,7 +18127,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26">
+    <row r="549" ht="13.5" spans="1:26">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -18011,7 +18155,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26">
+    <row r="550" ht="13.5" spans="1:26">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -18039,7 +18183,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26">
+    <row r="551" ht="13.5" spans="1:26">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -18067,7 +18211,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26">
+    <row r="552" ht="13.5" spans="1:26">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -18095,7 +18239,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26">
+    <row r="553" ht="13.5" spans="1:26">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -18123,7 +18267,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26">
+    <row r="554" ht="13.5" spans="1:26">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -18151,7 +18295,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26">
+    <row r="555" ht="13.5" spans="1:26">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -18179,7 +18323,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26">
+    <row r="556" ht="13.5" spans="1:26">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -18207,7 +18351,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26">
+    <row r="557" ht="13.5" spans="1:26">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -18235,7 +18379,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26">
+    <row r="558" ht="13.5" spans="1:26">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -18263,7 +18407,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26">
+    <row r="559" ht="13.5" spans="1:26">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -18291,7 +18435,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26">
+    <row r="560" ht="13.5" spans="1:26">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -18319,7 +18463,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26">
+    <row r="561" ht="13.5" spans="1:26">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -18347,7 +18491,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26">
+    <row r="562" ht="13.5" spans="1:26">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -18375,7 +18519,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26">
+    <row r="563" ht="13.5" spans="1:26">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -18403,7 +18547,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26">
+    <row r="564" ht="13.5" spans="1:26">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -18431,7 +18575,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26">
+    <row r="565" ht="13.5" spans="1:26">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -18459,7 +18603,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26">
+    <row r="566" ht="13.5" spans="1:26">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -18487,7 +18631,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26">
+    <row r="567" ht="13.5" spans="1:26">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -18515,7 +18659,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26">
+    <row r="568" ht="13.5" spans="1:26">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -18543,7 +18687,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26">
+    <row r="569" ht="13.5" spans="1:26">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -18571,7 +18715,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26">
+    <row r="570" ht="13.5" spans="1:26">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -18599,7 +18743,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26">
+    <row r="571" ht="13.5" spans="1:26">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -18627,7 +18771,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26">
+    <row r="572" ht="13.5" spans="1:26">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -18655,7 +18799,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26">
+    <row r="573" ht="13.5" spans="1:26">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -18683,7 +18827,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26">
+    <row r="574" ht="13.5" spans="1:26">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -18711,7 +18855,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26">
+    <row r="575" ht="13.5" spans="1:26">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18739,7 +18883,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26">
+    <row r="576" ht="13.5" spans="1:26">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18767,7 +18911,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26">
+    <row r="577" ht="13.5" spans="1:26">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18795,7 +18939,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26">
+    <row r="578" ht="13.5" spans="1:26">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18823,7 +18967,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26">
+    <row r="579" ht="13.5" spans="1:26">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18851,7 +18995,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26">
+    <row r="580" ht="13.5" spans="1:26">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18879,7 +19023,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26">
+    <row r="581" ht="13.5" spans="1:26">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18907,7 +19051,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26">
+    <row r="582" ht="13.5" spans="1:26">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18935,7 +19079,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26">
+    <row r="583" ht="13.5" spans="1:26">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18963,7 +19107,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26">
+    <row r="584" ht="13.5" spans="1:26">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18991,7 +19135,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26">
+    <row r="585" ht="13.5" spans="1:26">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -19019,7 +19163,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26">
+    <row r="586" ht="13.5" spans="1:26">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -19047,7 +19191,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26">
+    <row r="587" ht="13.5" spans="1:26">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -19075,7 +19219,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26">
+    <row r="588" ht="13.5" spans="1:26">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -19103,7 +19247,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26">
+    <row r="589" ht="13.5" spans="1:26">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -19131,7 +19275,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26">
+    <row r="590" ht="13.5" spans="1:26">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -19159,7 +19303,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26">
+    <row r="591" ht="13.5" spans="1:26">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -19187,7 +19331,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26">
+    <row r="592" ht="13.5" spans="1:26">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -19215,7 +19359,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26">
+    <row r="593" ht="13.5" spans="1:26">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -19243,7 +19387,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26">
+    <row r="594" ht="13.5" spans="1:26">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -19271,7 +19415,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26">
+    <row r="595" ht="13.5" spans="1:26">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -19299,7 +19443,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26">
+    <row r="596" ht="13.5" spans="1:26">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -19327,7 +19471,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26">
+    <row r="597" ht="13.5" spans="1:26">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -19355,7 +19499,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26">
+    <row r="598" ht="13.5" spans="1:26">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -19383,7 +19527,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26">
+    <row r="599" ht="13.5" spans="1:26">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -19411,7 +19555,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26">
+    <row r="600" ht="13.5" spans="1:26">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -19439,7 +19583,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26">
+    <row r="601" ht="13.5" spans="1:26">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -19467,7 +19611,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26">
+    <row r="602" ht="13.5" spans="1:26">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -19495,7 +19639,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26">
+    <row r="603" ht="13.5" spans="1:26">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -19523,7 +19667,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26">
+    <row r="604" ht="13.5" spans="1:26">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -19551,7 +19695,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26">
+    <row r="605" ht="13.5" spans="1:26">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -19579,7 +19723,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26">
+    <row r="606" ht="13.5" spans="1:26">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -19607,7 +19751,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26">
+    <row r="607" ht="13.5" spans="1:26">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -19635,7 +19779,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26">
+    <row r="608" ht="13.5" spans="1:26">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -19663,7 +19807,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26">
+    <row r="609" ht="13.5" spans="1:26">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -19691,7 +19835,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26">
+    <row r="610" ht="13.5" spans="1:26">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -19719,7 +19863,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26">
+    <row r="611" ht="13.5" spans="1:26">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19747,7 +19891,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26">
+    <row r="612" ht="13.5" spans="1:26">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19775,7 +19919,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26">
+    <row r="613" ht="13.5" spans="1:26">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19803,7 +19947,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26">
+    <row r="614" ht="13.5" spans="1:26">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19831,7 +19975,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26">
+    <row r="615" ht="13.5" spans="1:26">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19859,7 +20003,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26">
+    <row r="616" ht="13.5" spans="1:26">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19887,7 +20031,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26">
+    <row r="617" ht="13.5" spans="1:26">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19915,7 +20059,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26">
+    <row r="618" ht="13.5" spans="1:26">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19943,7 +20087,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26">
+    <row r="619" ht="13.5" spans="1:26">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19971,7 +20115,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26">
+    <row r="620" ht="13.5" spans="1:26">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19999,7 +20143,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26">
+    <row r="621" ht="13.5" spans="1:26">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -20027,7 +20171,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26">
+    <row r="622" ht="13.5" spans="1:26">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -20055,7 +20199,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26">
+    <row r="623" ht="13.5" spans="1:26">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -20083,7 +20227,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26">
+    <row r="624" ht="13.5" spans="1:26">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -20111,7 +20255,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26">
+    <row r="625" ht="13.5" spans="1:26">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -20139,7 +20283,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26">
+    <row r="626" ht="13.5" spans="1:26">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -20167,7 +20311,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26">
+    <row r="627" ht="13.5" spans="1:26">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -20195,7 +20339,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26">
+    <row r="628" ht="13.5" spans="1:26">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -20223,7 +20367,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26">
+    <row r="629" ht="13.5" spans="1:26">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -20251,7 +20395,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26">
+    <row r="630" ht="13.5" spans="1:26">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -20279,7 +20423,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26">
+    <row r="631" ht="13.5" spans="1:26">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -20307,7 +20451,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26">
+    <row r="632" ht="13.5" spans="1:26">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20335,7 +20479,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26">
+    <row r="633" ht="13.5" spans="1:26">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20363,7 +20507,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26">
+    <row r="634" ht="13.5" spans="1:26">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20391,7 +20535,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26">
+    <row r="635" ht="13.5" spans="1:26">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20419,7 +20563,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26">
+    <row r="636" ht="13.5" spans="1:26">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20447,7 +20591,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26">
+    <row r="637" ht="13.5" spans="1:26">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20475,7 +20619,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26">
+    <row r="638" ht="13.5" spans="1:26">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20503,7 +20647,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26">
+    <row r="639" ht="13.5" spans="1:26">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20531,7 +20675,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26">
+    <row r="640" ht="13.5" spans="1:26">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20559,7 +20703,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26">
+    <row r="641" ht="13.5" spans="1:26">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -20587,7 +20731,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26">
+    <row r="642" ht="13.5" spans="1:26">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -20615,7 +20759,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26">
+    <row r="643" ht="13.5" spans="1:26">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -20643,7 +20787,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26">
+    <row r="644" ht="13.5" spans="1:26">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -20671,7 +20815,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26">
+    <row r="645" ht="13.5" spans="1:26">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -20699,7 +20843,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26">
+    <row r="646" ht="13.5" spans="1:26">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -20727,7 +20871,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26">
+    <row r="647" ht="13.5" spans="1:26">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20755,7 +20899,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26">
+    <row r="648" ht="13.5" spans="1:26">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20783,7 +20927,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26">
+    <row r="649" ht="13.5" spans="1:26">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20811,7 +20955,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26">
+    <row r="650" ht="13.5" spans="1:26">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20839,7 +20983,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26">
+    <row r="651" ht="13.5" spans="1:26">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20867,7 +21011,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26">
+    <row r="652" ht="13.5" spans="1:26">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20895,7 +21039,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26">
+    <row r="653" ht="13.5" spans="1:26">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20923,7 +21067,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26">
+    <row r="654" ht="13.5" spans="1:26">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20951,7 +21095,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26">
+    <row r="655" ht="13.5" spans="1:26">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20979,7 +21123,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26">
+    <row r="656" ht="13.5" spans="1:26">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -21007,7 +21151,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26">
+    <row r="657" ht="13.5" spans="1:26">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -21035,7 +21179,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26">
+    <row r="658" ht="13.5" spans="1:26">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -21063,7 +21207,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26">
+    <row r="659" ht="13.5" spans="1:26">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -21091,7 +21235,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26">
+    <row r="660" ht="13.5" spans="1:26">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -21119,7 +21263,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26">
+    <row r="661" ht="13.5" spans="1:26">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -21147,7 +21291,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26">
+    <row r="662" ht="13.5" spans="1:26">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -21175,7 +21319,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26">
+    <row r="663" ht="13.5" spans="1:26">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -21203,7 +21347,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26">
+    <row r="664" ht="13.5" spans="1:26">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -21231,7 +21375,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26">
+    <row r="665" ht="13.5" spans="1:26">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -21259,7 +21403,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26">
+    <row r="666" ht="13.5" spans="1:26">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -21287,7 +21431,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26">
+    <row r="667" ht="13.5" spans="1:26">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -21315,7 +21459,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26">
+    <row r="668" ht="13.5" spans="1:26">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -21343,7 +21487,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26">
+    <row r="669" ht="13.5" spans="1:26">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -21371,7 +21515,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26">
+    <row r="670" ht="13.5" spans="1:26">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -21399,7 +21543,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26">
+    <row r="671" ht="13.5" spans="1:26">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -21427,7 +21571,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26">
+    <row r="672" ht="13.5" spans="1:26">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -21455,7 +21599,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26">
+    <row r="673" ht="13.5" spans="1:26">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -21483,7 +21627,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26">
+    <row r="674" ht="13.5" spans="1:26">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -21511,7 +21655,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26">
+    <row r="675" ht="13.5" spans="1:26">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -21539,7 +21683,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26">
+    <row r="676" ht="13.5" spans="1:26">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -21567,7 +21711,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26">
+    <row r="677" ht="13.5" spans="1:26">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -21595,7 +21739,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26">
+    <row r="678" ht="13.5" spans="1:26">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -21623,7 +21767,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26">
+    <row r="679" ht="13.5" spans="1:26">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -21651,7 +21795,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26">
+    <row r="680" ht="13.5" spans="1:26">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -21679,7 +21823,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26">
+    <row r="681" ht="13.5" spans="1:26">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -21707,7 +21851,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26">
+    <row r="682" ht="13.5" spans="1:26">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21735,7 +21879,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26">
+    <row r="683" ht="13.5" spans="1:26">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21763,7 +21907,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26">
+    <row r="684" ht="13.5" spans="1:26">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21791,7 +21935,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26">
+    <row r="685" ht="13.5" spans="1:26">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21819,7 +21963,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26">
+    <row r="686" ht="13.5" spans="1:26">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21847,7 +21991,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26">
+    <row r="687" ht="13.5" spans="1:26">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21875,7 +22019,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26">
+    <row r="688" ht="13.5" spans="1:26">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21903,7 +22047,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26">
+    <row r="689" ht="13.5" spans="1:26">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21931,7 +22075,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26">
+    <row r="690" ht="13.5" spans="1:26">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21959,7 +22103,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26">
+    <row r="691" ht="13.5" spans="1:26">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21987,7 +22131,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26">
+    <row r="692" ht="13.5" spans="1:26">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -22015,7 +22159,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26">
+    <row r="693" ht="13.5" spans="1:26">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -22043,7 +22187,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26">
+    <row r="694" ht="13.5" spans="1:26">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -22071,7 +22215,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26">
+    <row r="695" ht="13.5" spans="1:26">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -22099,7 +22243,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26">
+    <row r="696" ht="13.5" spans="1:26">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -22127,7 +22271,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26">
+    <row r="697" ht="13.5" spans="1:26">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -22155,7 +22299,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26">
+    <row r="698" ht="13.5" spans="1:26">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -22183,7 +22327,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26">
+    <row r="699" ht="13.5" spans="1:26">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -22211,7 +22355,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26">
+    <row r="700" ht="13.5" spans="1:26">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -22239,7 +22383,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26">
+    <row r="701" ht="13.5" spans="1:26">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -22267,7 +22411,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26">
+    <row r="702" ht="13.5" spans="1:26">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -22295,7 +22439,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26">
+    <row r="703" ht="13.5" spans="1:26">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -22323,7 +22467,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26">
+    <row r="704" ht="13.5" spans="1:26">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -22351,7 +22495,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26">
+    <row r="705" ht="13.5" spans="1:26">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -22379,7 +22523,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26">
+    <row r="706" ht="13.5" spans="1:26">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -22407,7 +22551,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26">
+    <row r="707" ht="13.5" spans="1:26">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -22435,7 +22579,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26">
+    <row r="708" ht="13.5" spans="1:26">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -22463,7 +22607,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26">
+    <row r="709" ht="13.5" spans="1:26">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -22491,7 +22635,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26">
+    <row r="710" ht="13.5" spans="1:26">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -22519,7 +22663,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26">
+    <row r="711" ht="13.5" spans="1:26">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -22547,7 +22691,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26">
+    <row r="712" ht="13.5" spans="1:26">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -22575,7 +22719,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26">
+    <row r="713" ht="13.5" spans="1:26">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -22603,7 +22747,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26">
+    <row r="714" ht="13.5" spans="1:26">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -22631,7 +22775,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26">
+    <row r="715" ht="13.5" spans="1:26">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -22659,7 +22803,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26">
+    <row r="716" ht="13.5" spans="1:26">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -22687,7 +22831,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26">
+    <row r="717" ht="13.5" spans="1:26">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -22715,7 +22859,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26">
+    <row r="718" ht="13.5" spans="1:26">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22743,7 +22887,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26">
+    <row r="719" ht="13.5" spans="1:26">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22771,7 +22915,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26">
+    <row r="720" ht="13.5" spans="1:26">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22799,7 +22943,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26">
+    <row r="721" ht="13.5" spans="1:26">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22827,7 +22971,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26">
+    <row r="722" ht="13.5" spans="1:26">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22855,7 +22999,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26">
+    <row r="723" ht="13.5" spans="1:26">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22883,7 +23027,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26">
+    <row r="724" ht="13.5" spans="1:26">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22911,7 +23055,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26">
+    <row r="725" ht="13.5" spans="1:26">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22939,7 +23083,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26">
+    <row r="726" ht="13.5" spans="1:26">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22967,7 +23111,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26">
+    <row r="727" ht="13.5" spans="1:26">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22995,7 +23139,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26">
+    <row r="728" ht="13.5" spans="1:26">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -23023,7 +23167,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26">
+    <row r="729" ht="13.5" spans="1:26">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -23051,7 +23195,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26">
+    <row r="730" ht="13.5" spans="1:26">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -23079,7 +23223,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26">
+    <row r="731" ht="13.5" spans="1:26">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -23107,7 +23251,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26">
+    <row r="732" ht="13.5" spans="1:26">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -23135,7 +23279,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26">
+    <row r="733" ht="13.5" spans="1:26">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -23163,7 +23307,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26">
+    <row r="734" ht="13.5" spans="1:26">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -23191,7 +23335,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26">
+    <row r="735" ht="13.5" spans="1:26">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -23219,7 +23363,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26">
+    <row r="736" ht="13.5" spans="1:26">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -23247,7 +23391,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26">
+    <row r="737" ht="13.5" spans="1:26">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -23275,7 +23419,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26">
+    <row r="738" ht="13.5" spans="1:26">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -23303,7 +23447,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26">
+    <row r="739" ht="13.5" spans="1:26">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -23331,7 +23475,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26">
+    <row r="740" ht="13.5" spans="1:26">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -23359,7 +23503,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26">
+    <row r="741" ht="13.5" spans="1:26">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -23387,7 +23531,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26">
+    <row r="742" ht="13.5" spans="1:26">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -23415,7 +23559,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26">
+    <row r="743" ht="13.5" spans="1:26">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -23443,7 +23587,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26">
+    <row r="744" ht="13.5" spans="1:26">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -23471,7 +23615,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26">
+    <row r="745" ht="13.5" spans="1:26">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -23499,7 +23643,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26">
+    <row r="746" ht="13.5" spans="1:26">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -23527,7 +23671,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26">
+    <row r="747" ht="13.5" spans="1:26">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -23555,7 +23699,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26">
+    <row r="748" ht="13.5" spans="1:26">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -23583,7 +23727,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26">
+    <row r="749" ht="13.5" spans="1:26">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -23611,7 +23755,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26">
+    <row r="750" ht="13.5" spans="1:26">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -23639,7 +23783,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26">
+    <row r="751" ht="13.5" spans="1:26">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -23667,7 +23811,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26">
+    <row r="752" ht="13.5" spans="1:26">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -23695,7 +23839,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26">
+    <row r="753" ht="13.5" spans="1:26">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -23723,7 +23867,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26">
+    <row r="754" ht="13.5" spans="1:26">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23751,7 +23895,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26">
+    <row r="755" ht="13.5" spans="1:26">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23779,7 +23923,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26">
+    <row r="756" ht="13.5" spans="1:26">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23807,7 +23951,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26">
+    <row r="757" ht="13.5" spans="1:26">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23835,7 +23979,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26">
+    <row r="758" ht="13.5" spans="1:26">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23863,7 +24007,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26">
+    <row r="759" ht="13.5" spans="1:26">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23891,7 +24035,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26">
+    <row r="760" ht="13.5" spans="1:26">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23919,7 +24063,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26">
+    <row r="761" ht="13.5" spans="1:26">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23947,7 +24091,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26">
+    <row r="762" ht="13.5" spans="1:26">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23975,7 +24119,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26">
+    <row r="763" ht="13.5" spans="1:26">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -24003,7 +24147,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26">
+    <row r="764" ht="13.5" spans="1:26">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -24031,7 +24175,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26">
+    <row r="765" ht="13.5" spans="1:26">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -24059,7 +24203,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26">
+    <row r="766" ht="13.5" spans="1:26">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -24087,7 +24231,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26">
+    <row r="767" ht="13.5" spans="1:26">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -24115,7 +24259,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26">
+    <row r="768" ht="13.5" spans="1:26">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -24143,7 +24287,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26">
+    <row r="769" ht="13.5" spans="1:26">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -24171,7 +24315,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26">
+    <row r="770" ht="13.5" spans="1:26">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -24199,7 +24343,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26">
+    <row r="771" ht="13.5" spans="1:26">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -24227,7 +24371,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26">
+    <row r="772" ht="13.5" spans="1:26">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -24255,7 +24399,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26">
+    <row r="773" ht="13.5" spans="1:26">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -24283,7 +24427,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26">
+    <row r="774" ht="13.5" spans="1:26">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -24311,7 +24455,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26">
+    <row r="775" ht="13.5" spans="1:26">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -24339,7 +24483,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26">
+    <row r="776" ht="13.5" spans="1:26">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -24367,7 +24511,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26">
+    <row r="777" ht="13.5" spans="1:26">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -24395,7 +24539,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26">
+    <row r="778" ht="13.5" spans="1:26">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -24423,7 +24567,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26">
+    <row r="779" ht="13.5" spans="1:26">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -24451,7 +24595,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26">
+    <row r="780" ht="13.5" spans="1:26">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -24479,7 +24623,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26">
+    <row r="781" ht="13.5" spans="1:26">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -24507,7 +24651,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26">
+    <row r="782" ht="13.5" spans="1:26">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -24535,7 +24679,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26">
+    <row r="783" ht="13.5" spans="1:26">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -24563,7 +24707,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26">
+    <row r="784" ht="13.5" spans="1:26">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -24591,7 +24735,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26">
+    <row r="785" ht="13.5" spans="1:26">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -24619,7 +24763,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26">
+    <row r="786" ht="13.5" spans="1:26">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -24647,7 +24791,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26">
+    <row r="787" ht="13.5" spans="1:26">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -24675,7 +24819,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26">
+    <row r="788" ht="13.5" spans="1:26">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -24703,7 +24847,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26">
+    <row r="789" ht="13.5" spans="1:26">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -24731,7 +24875,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26">
+    <row r="790" ht="13.5" spans="1:26">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24759,7 +24903,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26">
+    <row r="791" ht="13.5" spans="1:26">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24787,7 +24931,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26">
+    <row r="792" ht="13.5" spans="1:26">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24815,7 +24959,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26">
+    <row r="793" ht="13.5" spans="1:26">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24843,7 +24987,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26">
+    <row r="794" ht="13.5" spans="1:26">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24871,7 +25015,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26">
+    <row r="795" ht="13.5" spans="1:26">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24899,7 +25043,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26">
+    <row r="796" ht="13.5" spans="1:26">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24927,7 +25071,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26">
+    <row r="797" ht="13.5" spans="1:26">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24955,7 +25099,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26">
+    <row r="798" ht="13.5" spans="1:26">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24983,7 +25127,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26">
+    <row r="799" ht="13.5" spans="1:26">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -25011,7 +25155,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26">
+    <row r="800" ht="13.5" spans="1:26">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -25039,7 +25183,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26">
+    <row r="801" ht="13.5" spans="1:26">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -25067,7 +25211,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26">
+    <row r="802" ht="13.5" spans="1:26">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -25095,7 +25239,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26">
+    <row r="803" ht="13.5" spans="1:26">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -25123,7 +25267,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26">
+    <row r="804" ht="13.5" spans="1:26">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -25151,7 +25295,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26">
+    <row r="805" ht="13.5" spans="1:26">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -25179,7 +25323,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26">
+    <row r="806" ht="13.5" spans="1:26">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -25207,7 +25351,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26">
+    <row r="807" ht="13.5" spans="1:26">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -25235,7 +25379,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26">
+    <row r="808" ht="13.5" spans="1:26">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -25263,7 +25407,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26">
+    <row r="809" ht="13.5" spans="1:26">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -25291,7 +25435,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26">
+    <row r="810" ht="13.5" spans="1:26">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -25319,7 +25463,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26">
+    <row r="811" ht="13.5" spans="1:26">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -25347,7 +25491,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26">
+    <row r="812" ht="13.5" spans="1:26">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -25375,7 +25519,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26">
+    <row r="813" ht="13.5" spans="1:26">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -25403,7 +25547,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26">
+    <row r="814" ht="13.5" spans="1:26">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -25431,7 +25575,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26">
+    <row r="815" ht="13.5" spans="1:26">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -25459,7 +25603,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26">
+    <row r="816" ht="13.5" spans="1:26">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -25487,7 +25631,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26">
+    <row r="817" ht="13.5" spans="1:26">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -25515,7 +25659,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26">
+    <row r="818" ht="13.5" spans="1:26">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -25543,7 +25687,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26">
+    <row r="819" ht="13.5" spans="1:26">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -25571,7 +25715,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26">
+    <row r="820" ht="13.5" spans="1:26">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -25599,7 +25743,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26">
+    <row r="821" ht="13.5" spans="1:26">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -25627,7 +25771,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26">
+    <row r="822" ht="13.5" spans="1:26">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -25655,7 +25799,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26">
+    <row r="823" ht="13.5" spans="1:26">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -25683,7 +25827,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26">
+    <row r="824" ht="13.5" spans="1:26">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -25711,7 +25855,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26">
+    <row r="825" ht="13.5" spans="1:26">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25739,7 +25883,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26">
+    <row r="826" ht="13.5" spans="1:26">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25767,7 +25911,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26">
+    <row r="827" ht="13.5" spans="1:26">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25795,7 +25939,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26">
+    <row r="828" ht="13.5" spans="1:26">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25823,7 +25967,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26">
+    <row r="829" ht="13.5" spans="1:26">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25851,7 +25995,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26">
+    <row r="830" ht="13.5" spans="1:26">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25879,7 +26023,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26">
+    <row r="831" ht="13.5" spans="1:26">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25907,7 +26051,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26">
+    <row r="832" ht="13.5" spans="1:26">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25935,7 +26079,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26">
+    <row r="833" ht="13.5" spans="1:26">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25963,7 +26107,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26">
+    <row r="834" ht="13.5" spans="1:26">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25991,7 +26135,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26">
+    <row r="835" ht="13.5" spans="1:26">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -26019,7 +26163,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26">
+    <row r="836" ht="13.5" spans="1:26">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -26047,7 +26191,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26">
+    <row r="837" ht="13.5" spans="1:26">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -26075,7 +26219,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26">
+    <row r="838" ht="13.5" spans="1:26">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -26103,7 +26247,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26">
+    <row r="839" ht="13.5" spans="1:26">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -26131,7 +26275,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26">
+    <row r="840" ht="13.5" spans="1:26">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -26159,7 +26303,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26">
+    <row r="841" ht="13.5" spans="1:26">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -26187,7 +26331,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26">
+    <row r="842" ht="13.5" spans="1:26">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -26215,7 +26359,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26">
+    <row r="843" ht="13.5" spans="1:26">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -26243,7 +26387,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26">
+    <row r="844" ht="13.5" spans="1:26">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -26271,7 +26415,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26">
+    <row r="845" ht="13.5" spans="1:26">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -26299,7 +26443,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26">
+    <row r="846" ht="13.5" spans="1:26">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -26327,7 +26471,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26">
+    <row r="847" ht="13.5" spans="1:26">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -26355,7 +26499,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26">
+    <row r="848" ht="13.5" spans="1:26">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -26383,7 +26527,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26">
+    <row r="849" ht="13.5" spans="1:26">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -26411,7 +26555,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26">
+    <row r="850" ht="13.5" spans="1:26">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -26439,7 +26583,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26">
+    <row r="851" ht="13.5" spans="1:26">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -26467,7 +26611,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26">
+    <row r="852" ht="13.5" spans="1:26">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -26495,7 +26639,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26">
+    <row r="853" ht="13.5" spans="1:26">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -26523,7 +26667,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26">
+    <row r="854" ht="13.5" spans="1:26">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -26551,7 +26695,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26">
+    <row r="855" ht="13.5" spans="1:26">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -26579,7 +26723,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26">
+    <row r="856" ht="13.5" spans="1:26">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -26607,7 +26751,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26">
+    <row r="857" ht="13.5" spans="1:26">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -26635,7 +26779,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26">
+    <row r="858" ht="13.5" spans="1:26">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -26663,7 +26807,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26">
+    <row r="859" ht="13.5" spans="1:26">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -26691,7 +26835,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26">
+    <row r="860" ht="13.5" spans="1:26">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -26719,7 +26863,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26">
+    <row r="861" ht="13.5" spans="1:26">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26747,7 +26891,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26">
+    <row r="862" ht="13.5" spans="1:26">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26775,7 +26919,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26">
+    <row r="863" ht="13.5" spans="1:26">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26803,7 +26947,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26">
+    <row r="864" ht="13.5" spans="1:26">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26831,7 +26975,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26">
+    <row r="865" ht="13.5" spans="1:26">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26859,7 +27003,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26">
+    <row r="866" ht="13.5" spans="1:26">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26887,7 +27031,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26">
+    <row r="867" ht="13.5" spans="1:26">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26915,7 +27059,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26">
+    <row r="868" ht="13.5" spans="1:26">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26943,7 +27087,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26">
+    <row r="869" ht="13.5" spans="1:26">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26971,7 +27115,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26">
+    <row r="870" ht="13.5" spans="1:26">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26999,7 +27143,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26">
+    <row r="871" ht="13.5" spans="1:26">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -27027,7 +27171,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26">
+    <row r="872" ht="13.5" spans="1:26">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -27055,7 +27199,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26">
+    <row r="873" ht="13.5" spans="1:26">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -27083,7 +27227,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26">
+    <row r="874" ht="13.5" spans="1:26">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -27111,7 +27255,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26">
+    <row r="875" ht="13.5" spans="1:26">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -27139,7 +27283,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26">
+    <row r="876" ht="13.5" spans="1:26">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -27167,7 +27311,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26">
+    <row r="877" ht="13.5" spans="1:26">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -27195,7 +27339,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26">
+    <row r="878" ht="13.5" spans="1:26">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -27223,7 +27367,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26">
+    <row r="879" ht="13.5" spans="1:26">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -27251,7 +27395,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26">
+    <row r="880" ht="13.5" spans="1:26">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -27279,7 +27423,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26">
+    <row r="881" ht="13.5" spans="1:26">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -27307,7 +27451,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26">
+    <row r="882" ht="13.5" spans="1:26">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -27335,7 +27479,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26">
+    <row r="883" ht="13.5" spans="1:26">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -27363,7 +27507,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26">
+    <row r="884" ht="13.5" spans="1:26">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -27391,7 +27535,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26">
+    <row r="885" ht="13.5" spans="1:26">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -27419,7 +27563,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26">
+    <row r="886" ht="13.5" spans="1:26">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -27447,7 +27591,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26">
+    <row r="887" ht="13.5" spans="1:26">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -27475,7 +27619,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26">
+    <row r="888" ht="13.5" spans="1:26">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -27503,7 +27647,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26">
+    <row r="889" ht="13.5" spans="1:26">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -27531,7 +27675,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26">
+    <row r="890" ht="13.5" spans="1:26">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -27559,7 +27703,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26">
+    <row r="891" ht="13.5" spans="1:26">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -27587,7 +27731,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26">
+    <row r="892" ht="13.5" spans="1:26">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -27615,7 +27759,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26">
+    <row r="893" ht="13.5" spans="1:26">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -27643,7 +27787,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26">
+    <row r="894" ht="13.5" spans="1:26">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -27671,7 +27815,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26">
+    <row r="895" ht="13.5" spans="1:26">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -27699,7 +27843,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26">
+    <row r="896" ht="13.5" spans="1:26">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -27727,7 +27871,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26">
+    <row r="897" ht="13.5" spans="1:26">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27755,7 +27899,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26">
+    <row r="898" ht="13.5" spans="1:26">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27783,7 +27927,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26">
+    <row r="899" ht="13.5" spans="1:26">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27811,7 +27955,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26">
+    <row r="900" ht="13.5" spans="1:26">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27839,7 +27983,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26">
+    <row r="901" ht="13.5" spans="1:26">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27867,7 +28011,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26">
+    <row r="902" ht="13.5" spans="1:26">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27895,7 +28039,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26">
+    <row r="903" ht="13.5" spans="1:26">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27923,7 +28067,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26">
+    <row r="904" ht="13.5" spans="1:26">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27951,7 +28095,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26">
+    <row r="905" ht="13.5" spans="1:26">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27979,7 +28123,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26">
+    <row r="906" ht="13.5" spans="1:26">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -28007,7 +28151,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26">
+    <row r="907" ht="13.5" spans="1:26">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -28035,7 +28179,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26">
+    <row r="908" ht="13.5" spans="1:26">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -28063,7 +28207,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26">
+    <row r="909" ht="13.5" spans="1:26">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -28091,7 +28235,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26">
+    <row r="910" ht="13.5" spans="1:26">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -28119,7 +28263,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26">
+    <row r="911" ht="13.5" spans="1:26">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -28147,7 +28291,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26">
+    <row r="912" ht="13.5" spans="1:26">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -28175,7 +28319,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26">
+    <row r="913" ht="13.5" spans="1:26">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -28203,7 +28347,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26">
+    <row r="914" ht="13.5" spans="1:26">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -28231,7 +28375,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26">
+    <row r="915" ht="13.5" spans="1:26">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -28259,7 +28403,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26">
+    <row r="916" ht="13.5" spans="1:26">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -28287,7 +28431,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26">
+    <row r="917" ht="13.5" spans="1:26">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -28315,7 +28459,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26">
+    <row r="918" ht="13.5" spans="1:26">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -28343,7 +28487,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26">
+    <row r="919" ht="13.5" spans="1:26">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -28371,7 +28515,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26">
+    <row r="920" ht="13.5" spans="1:26">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -28399,7 +28543,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26">
+    <row r="921" ht="13.5" spans="1:26">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -28427,7 +28571,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26">
+    <row r="922" ht="13.5" spans="1:26">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -28455,7 +28599,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26">
+    <row r="923" ht="13.5" spans="1:26">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -28483,7 +28627,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26">
+    <row r="924" ht="13.5" spans="1:26">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -28511,7 +28655,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26">
+    <row r="925" ht="13.5" spans="1:26">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -28539,7 +28683,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26">
+    <row r="926" ht="13.5" spans="1:26">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -28567,7 +28711,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26">
+    <row r="927" ht="13.5" spans="1:26">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -28595,7 +28739,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26">
+    <row r="928" ht="13.5" spans="1:26">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -28623,7 +28767,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26">
+    <row r="929" ht="13.5" spans="1:26">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -28651,7 +28795,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26">
+    <row r="930" ht="13.5" spans="1:26">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -28679,7 +28823,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26">
+    <row r="931" ht="13.5" spans="1:26">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -28707,7 +28851,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26">
+    <row r="932" ht="13.5" spans="1:26">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28735,7 +28879,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26">
+    <row r="933" ht="13.5" spans="1:26">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28763,7 +28907,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26">
+    <row r="934" ht="13.5" spans="1:26">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28791,7 +28935,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26">
+    <row r="935" ht="13.5" spans="1:26">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28819,7 +28963,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26">
+    <row r="936" ht="13.5" spans="1:26">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28847,7 +28991,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26">
+    <row r="937" ht="13.5" spans="1:26">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28875,7 +29019,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26">
+    <row r="938" ht="13.5" spans="1:26">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28903,7 +29047,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26">
+    <row r="939" ht="13.5" spans="1:26">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28931,7 +29075,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26">
+    <row r="940" ht="13.5" spans="1:26">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28959,7 +29103,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26">
+    <row r="941" ht="13.5" spans="1:26">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28987,7 +29131,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26">
+    <row r="942" ht="13.5" spans="1:26">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -29015,7 +29159,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26">
+    <row r="943" ht="13.5" spans="1:26">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -29043,7 +29187,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26">
+    <row r="944" ht="13.5" spans="1:26">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -29071,7 +29215,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26">
+    <row r="945" ht="13.5" spans="1:26">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -29099,7 +29243,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26">
+    <row r="946" ht="13.5" spans="1:26">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -29127,7 +29271,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26">
+    <row r="947" ht="13.5" spans="1:26">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -29155,7 +29299,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26">
+    <row r="948" ht="13.5" spans="1:26">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -29183,7 +29327,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26">
+    <row r="949" ht="13.5" spans="1:26">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -29211,7 +29355,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26">
+    <row r="950" ht="13.5" spans="1:26">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -29239,7 +29383,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26">
+    <row r="951" ht="13.5" spans="1:26">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -29267,7 +29411,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26">
+    <row r="952" ht="13.5" spans="1:26">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -29295,7 +29439,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26">
+    <row r="953" ht="13.5" spans="1:26">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -29323,7 +29467,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26">
+    <row r="954" ht="13.5" spans="1:26">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -29351,7 +29495,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26">
+    <row r="955" ht="13.5" spans="1:26">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -29379,7 +29523,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26">
+    <row r="956" ht="13.5" spans="1:26">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -29407,7 +29551,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26">
+    <row r="957" ht="13.5" spans="1:26">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -29435,7 +29579,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26">
+    <row r="958" ht="13.5" spans="1:26">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -29463,7 +29607,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26">
+    <row r="959" ht="13.5" spans="1:26">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -29491,7 +29635,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26">
+    <row r="960" ht="13.5" spans="1:26">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -29519,7 +29663,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26">
+    <row r="961" ht="13.5" spans="1:26">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -29547,7 +29691,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26">
+    <row r="962" ht="13.5" spans="1:26">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -29575,7 +29719,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26">
+    <row r="963" ht="13.5" spans="1:26">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -29603,7 +29747,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26">
+    <row r="964" ht="13.5" spans="1:26">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -29631,7 +29775,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26">
+    <row r="965" ht="13.5" spans="1:26">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -29659,7 +29803,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26">
+    <row r="966" ht="13.5" spans="1:26">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -29687,7 +29831,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26">
+    <row r="967" ht="13.5" spans="1:26">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -29715,7 +29859,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26">
+    <row r="968" ht="13.5" spans="1:26">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29743,7 +29887,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26">
+    <row r="969" ht="13.5" spans="1:26">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29771,7 +29915,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26">
+    <row r="970" ht="13.5" spans="1:26">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29799,7 +29943,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26">
+    <row r="971" ht="13.5" spans="1:26">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29827,7 +29971,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26">
+    <row r="972" ht="13.5" spans="1:26">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29855,7 +29999,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26">
+    <row r="973" ht="13.5" spans="1:26">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29883,7 +30027,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26">
+    <row r="974" ht="13.5" spans="1:26">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29911,7 +30055,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26">
+    <row r="975" ht="13.5" spans="1:26">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29939,7 +30083,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26">
+    <row r="976" ht="13.5" spans="1:26">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29967,7 +30111,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26">
+    <row r="977" ht="13.5" spans="1:26">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -29995,7 +30139,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26">
+    <row r="978" ht="13.5" spans="1:26">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -30023,7 +30167,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26">
+    <row r="979" ht="13.5" spans="1:26">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -30051,7 +30195,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26">
+    <row r="980" ht="13.5" spans="1:26">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -30079,7 +30223,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26">
+    <row r="981" ht="13.5" spans="1:26">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -30107,7 +30251,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26">
+    <row r="982" ht="13.5" spans="1:26">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -30135,7 +30279,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26">
+    <row r="983" ht="13.5" spans="1:26">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -30163,7 +30307,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26">
+    <row r="984" ht="13.5" spans="1:26">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -30191,7 +30335,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26">
+    <row r="985" ht="13.5" spans="1:26">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -30219,7 +30363,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26">
+    <row r="986" ht="13.5" spans="1:26">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -30247,7 +30391,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26">
+    <row r="987" ht="13.5" spans="1:26">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -30275,7 +30419,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26">
+    <row r="988" ht="13.5" spans="1:26">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -30303,7 +30447,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26">
+    <row r="989" ht="13.5" spans="1:26">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -30331,7 +30475,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26">
+    <row r="990" ht="13.5" spans="1:26">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -30359,7 +30503,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26">
+    <row r="991" ht="13.5" spans="1:26">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -30387,7 +30531,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26">
+    <row r="992" ht="13.5" spans="1:26">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -30415,7 +30559,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26">
+    <row r="993" ht="13.5" spans="1:26">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -30443,7 +30587,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26">
+    <row r="994" ht="13.5" spans="1:26">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -30471,7 +30615,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26">
+    <row r="995" ht="13.5" spans="1:26">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -30499,7 +30643,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26">
+    <row r="996" ht="13.5" spans="1:26">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -30527,7 +30671,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26">
+    <row r="997" ht="13.5" spans="1:26">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -30555,7 +30699,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26">
+    <row r="998" ht="13.5" spans="1:26">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
